--- a/LINEアプリ_環境設定.xlsx
+++ b/LINEアプリ_環境設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\juju-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFC051-5727-47C6-95FD-880768332959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0F568-8DFB-419C-9C75-7079E66B7190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="165" windowWidth="26445" windowHeight="15195" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28095" yWindow="150" windowWidth="25740" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="環境" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SSL証明書作成" sheetId="5" r:id="rId3"/>
     <sheet name="Google Apps Script（bot）" sheetId="7" r:id="rId4"/>
     <sheet name="SSL証明書管理" sheetId="8" r:id="rId5"/>
+    <sheet name="環境変数" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
   <si>
     <t>■</t>
     <phoneticPr fontId="1"/>
@@ -1646,12 +1647,185 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t># NEXT_PUBLIC_LIFF_ID=liffId
+NEXT_PUBLIC_LIFF_ID=1657920440-Wpq0Z3LK
+NEXT_PUBLIC_SALT_API_URL=https://api.juju.saltapl.com/api/schedules
+NEXT_PUBLIC_SALT_API_TOKEN=eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c2VyIjp7ImlkIjo2LCJsb2dpbl9pZCI6InlveWFrdSIsImZhc3RfbmFtZSI6IuS6iOe0hCIsImxhc3RfbmFtZSI6IuS7riIsImRpc3BfbmFtZSI6IuS7riDkuojntIQiLCJmYXN0X2thbmEiOiLjg6jjg6Tjgq8iLCJsYXN0X2thbmEiOiLjgqvjg6oiLCJlX21haWwiOiIiLCJzdGFmZl9jb2RlIjoiIiwib3V0c2lkZV9saW5lIjoiLS0iLCJleHRlbnNpb24iOm51bGwsImNlbGxwaG9uZV9udW1iZXIiOiItLSIsImNlbGxwaG9uZV9lbWFpbCI6bnVsbCwiaW1hZ2VfcGF0aCI6bnVsbCwicG9zaXRpb24iOm51bGwsImFkbWluIjpmYWxzZSwiZW5hYmxlIjp0cnVlLCJzb3J0Ijo1LCJpbnNlcnR1c2VyIjoxLCJpbnNlcnR0aW1lIjoiMjAyMy0wNS0wMVQwODozMjozNS44MTdaIiwidXBkYXRldXNlciI6bnVsbCwidXBkYXRldGltZSI6bnVsbCwicGVybWlzc2lvbnMiOnsic2NoZWR1bGUiOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwid29ya2Zsb3ciOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6ZmFsc2UsImVkaXQiOmZhbHNlLCJkZWxldGUiOmZhbHNlfX0sImxpYnJhcnkiOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwiaW5mb3JtYXRpb24iOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwidGltZWNhcmQiOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwiYXR0YWNobWVudCI6eyJtZSI6eyJ2aWV3Ijp0cnVlLCJlZGl0Ijp0cnVlLCJkZWxldGUiOnRydWV9LCJvdGhlciI6eyJ2aWV3Ijp0cnVlLCJlZGl0IjpmYWxzZSwiZGVsZXRlIjpmYWxzZX19fX0sImlhdCI6MTY4MzYwOTU3OCwiZXhwIjo0ODM5MzY5NTc4fQ.xNqI_vY1CdmKiyW5WkU6PRs5X2L4-y_NpbX7Gp2An20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数の設定内容は以下とする。</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEXT_PUBLIC_LIFF_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEXT_PUBLIC_SALT_API_URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEXT_PUBLIC_SALT_API_TOKEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定内容</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1657920440-Wpq0Z3LK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://api.juju.saltapl.com/api/schedules</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJ1c2VyIjp7ImlkIjo2LCJsb2dpbl9pZCI6InlveWFrdSIsImZhc3RfbmFtZSI6IuS6iOe0hCIsImxhc3RfbmFtZSI6IuS7riIsImRpc3BfbmFtZSI6IuS7riDkuojntIQiLCJmYXN0X2thbmEiOiLjg6jjg6Tjgq8iLCJsYXN0X2thbmEiOiLjgqvjg6oiLCJlX21haWwiOiIiLCJzdGFmZl9jb2RlIjoiIiwib3V0c2lkZV9saW5lIjoiLS0iLCJleHRlbnNpb24iOm51bGwsImNlbGxwaG9uZV9udW1iZXIiOiItLSIsImNlbGxwaG9uZV9lbWFpbCI6bnVsbCwiaW1hZ2VfcGF0aCI6bnVsbCwicG9zaXRpb24iOm51bGwsImFkbWluIjpmYWxzZSwiZW5hYmxlIjp0cnVlLCJzb3J0Ijo1LCJpbnNlcnR1c2VyIjoxLCJpbnNlcnR0aW1lIjoiMjAyMy0wNS0wMVQwODozMjozNS44MTdaIiwidXBkYXRldXNlciI6bnVsbCwidXBkYXRldGltZSI6bnVsbCwicGVybWlzc2lvbnMiOnsic2NoZWR1bGUiOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwid29ya2Zsb3ciOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6ZmFsc2UsImVkaXQiOmZhbHNlLCJkZWxldGUiOmZhbHNlfX0sImxpYnJhcnkiOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwiaW5mb3JtYXRpb24iOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwidGltZWNhcmQiOnsibWUiOnsidmlldyI6dHJ1ZSwiZWRpdCI6dHJ1ZSwiZGVsZXRlIjp0cnVlfSwib3RoZXIiOnsidmlldyI6dHJ1ZSwiZWRpdCI6ZmFsc2UsImRlbGV0ZSI6ZmFsc2V9fSwiYXR0YWNobWVudCI6eyJtZSI6eyJ2aWV3Ijp0cnVlLCJlZGl0Ijp0cnVlLCJkZWxldGUiOnRydWV9LCJvdGhlciI6eyJ2aWV3Ijp0cnVlLCJlZGl0IjpmYWxzZSwiZGVsZXRlIjpmYWxzZX19fX0sImlhdCI6MTY4MzYwOTU3OCwiZXhwIjo0ODM5MzY5NTc4fQ.xNqI_vY1CdmKiyW5WkU6PRs5X2L4-y_NpbX7Gp2An20
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFFアプリID
+LINE DevelopersによるLINEログインの設定により付与されたID。
+</t>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SALTスケジュール登録APIのURL</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SALT APIのアクセストークン。
+有効期限が100年程設定されているため、しばらくはこのままの設定値で使用可。
+アクセストークンが漏洩したら更新が必要。
+右記の値をJWTデコードするとクレーム値を確認できる。</t>
+    <rPh sb="19" eb="21">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>シヨウカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ウキ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［ファイル内容］</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1　プレフィックス値"NEXT_PUBLIC_"がないとアプリ側で読み込みできない。</t>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2　運用環境に配備する際は、改行コードがLF（linux）になっていることに留意する。</t>
+    <rPh sb="3" eb="7">
+      <t>ウンヨウカンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>リュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1765,6 +1939,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1780,7 +1969,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1946,6 +2135,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1955,7 +2224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,6 +2264,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2022,39 +2342,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2064,44 +2351,65 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3056,7 +3364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3362,39 +3670,39 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="22"/>
@@ -3419,39 +3727,39 @@
       <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="28" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="22"/>
@@ -3476,39 +3784,39 @@
       <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="22"/>
@@ -3533,37 +3841,37 @@
       <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
@@ -3588,39 +3896,39 @@
       <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
@@ -3645,39 +3953,39 @@
       <c r="C15" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
       <c r="AG15" s="22" t="s">
         <v>76</v>
       </c>
@@ -3704,157 +4012,157 @@
       <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="23" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="33" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="35"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="41"/>
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C17" s="9">
         <v>8</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="23" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="33" t="s">
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="34"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="35"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="41"/>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C18" s="9">
         <v>9</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="23" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
       <c r="AG18" s="22" t="s">
         <v>109</v>
       </c>
@@ -3881,39 +4189,39 @@
       <c r="C19" s="9">
         <v>10</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
       <c r="AG19" s="22" t="s">
         <v>109</v>
       </c>
@@ -4091,189 +4399,189 @@
       <c r="E48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="15"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="32"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="18"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="35"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="18"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="35"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="18"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="35"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="18"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="35"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="18"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="35"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="18"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="35"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="18"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="35"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="21"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="38"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4307,197 +4615,194 @@
       <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="15"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="32"/>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="18"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="35"/>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="18"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="35"/>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="18"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="35"/>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="18"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="35"/>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="18"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="35"/>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="18"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="35"/>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="18"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="35"/>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G72" s="19"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="20"/>
-      <c r="X72" s="21"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="38"/>
     </row>
     <row r="74" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="C75" s="36"/>
     </row>
     <row r="76" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D76" s="2" t="s">
@@ -4561,11 +4866,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="G64:X72"/>
+    <mergeCell ref="G48:X56"/>
+    <mergeCell ref="AG15:AY15"/>
+    <mergeCell ref="AG16:AY16"/>
+    <mergeCell ref="AG17:AY17"/>
+    <mergeCell ref="AG18:AY18"/>
+    <mergeCell ref="AG19:AY19"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG9:AY9"/>
+    <mergeCell ref="AG10:AY10"/>
+    <mergeCell ref="AG11:AY11"/>
+    <mergeCell ref="AG12:AY12"/>
+    <mergeCell ref="AG13:AY13"/>
     <mergeCell ref="AG14:AY14"/>
     <mergeCell ref="E13:L13"/>
     <mergeCell ref="E15:L15"/>
@@ -4582,22 +4898,11 @@
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="AG9:AY9"/>
-    <mergeCell ref="AG10:AY10"/>
-    <mergeCell ref="AG11:AY11"/>
-    <mergeCell ref="AG12:AY12"/>
-    <mergeCell ref="AG13:AY13"/>
-    <mergeCell ref="G64:X72"/>
-    <mergeCell ref="G48:X56"/>
-    <mergeCell ref="AG15:AY15"/>
-    <mergeCell ref="AG16:AY16"/>
-    <mergeCell ref="AG17:AY17"/>
-    <mergeCell ref="AG18:AY18"/>
-    <mergeCell ref="AG19:AY19"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4704,405 +5009,405 @@
       </c>
     </row>
     <row r="83" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="32"/>
-      <c r="T83" s="32"/>
-      <c r="U83" s="32"/>
-      <c r="V83" s="32"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
     </row>
     <row r="84" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D84" s="31"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="43"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
     </row>
     <row r="85" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="32"/>
-      <c r="T85" s="32"/>
-      <c r="U85" s="32"/>
-      <c r="V85" s="32"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
     </row>
     <row r="86" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
     </row>
     <row r="87" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
     </row>
     <row r="88" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="32"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
     </row>
     <row r="89" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="32"/>
-      <c r="T89" s="32"/>
-      <c r="U89" s="32"/>
-      <c r="V89" s="32"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
     </row>
     <row r="90" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="32"/>
-      <c r="T90" s="32"/>
-      <c r="U90" s="32"/>
-      <c r="V90" s="32"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
     </row>
     <row r="91" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="32"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="32"/>
-      <c r="T91" s="32"/>
-      <c r="U91" s="32"/>
-      <c r="V91" s="32"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
     </row>
     <row r="92" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="32"/>
-      <c r="Q92" s="32"/>
-      <c r="R92" s="32"/>
-      <c r="S92" s="32"/>
-      <c r="T92" s="32"/>
-      <c r="U92" s="32"/>
-      <c r="V92" s="32"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
     </row>
     <row r="93" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="32"/>
-      <c r="T93" s="32"/>
-      <c r="U93" s="32"/>
-      <c r="V93" s="32"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
     </row>
     <row r="94" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="32"/>
-      <c r="T94" s="32"/>
-      <c r="U94" s="32"/>
-      <c r="V94" s="32"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
     </row>
     <row r="95" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="32"/>
-      <c r="T95" s="32"/>
-      <c r="U95" s="32"/>
-      <c r="V95" s="32"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
     </row>
     <row r="96" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="32"/>
-      <c r="T96" s="32"/>
-      <c r="U96" s="32"/>
-      <c r="V96" s="32"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43"/>
     </row>
     <row r="97" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="32"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="32"/>
-      <c r="O97" s="32"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="32"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="32"/>
-      <c r="T97" s="32"/>
-      <c r="U97" s="32"/>
-      <c r="V97" s="32"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43"/>
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="32"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="32"/>
-      <c r="T98" s="32"/>
-      <c r="U98" s="32"/>
-      <c r="V98" s="32"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="43"/>
+      <c r="U98" s="43"/>
+      <c r="V98" s="43"/>
     </row>
     <row r="99" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="32"/>
-      <c r="P99" s="32"/>
-      <c r="Q99" s="32"/>
-      <c r="R99" s="32"/>
-      <c r="S99" s="32"/>
-      <c r="T99" s="32"/>
-      <c r="U99" s="32"/>
-      <c r="V99" s="32"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
     </row>
     <row r="100" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32"/>
-      <c r="R100" s="32"/>
-      <c r="S100" s="32"/>
-      <c r="T100" s="32"/>
-      <c r="U100" s="32"/>
-      <c r="V100" s="32"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
     </row>
     <row r="101" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="32"/>
-      <c r="T101" s="32"/>
-      <c r="U101" s="32"/>
-      <c r="V101" s="32"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
     </row>
     <row r="103" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
@@ -5111,10 +5416,10 @@
       <c r="D103" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R103" s="47" t="s">
+      <c r="R103" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="S103" s="46" t="s">
+      <c r="S103" s="18" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5129,20 +5434,20 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D120" s="47" t="s">
+      <c r="D120" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E120" s="48" t="s">
+      <c r="E120" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E121" s="46" t="s">
+      <c r="E121" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E122" s="46" t="s">
+      <c r="E122" s="18" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5196,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7785871-57DA-42EE-9501-4E058C584D66}">
   <dimension ref="B2:AX186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5212,70 +5517,70 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="38" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="38" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="39" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -5291,7 +5596,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -5299,7 +5604,7 @@
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="13" t="s">
         <v>136</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -5359,463 +5664,463 @@
       </c>
     </row>
     <row r="85" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41" t="s">
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="R85" s="41"/>
-      <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
-      <c r="V85" s="41"/>
-      <c r="W85" s="41"/>
-      <c r="X85" s="41"/>
-      <c r="Y85" s="41"/>
-      <c r="Z85" s="41"/>
-      <c r="AA85" s="41"/>
-      <c r="AB85" s="41"/>
-      <c r="AC85" s="41"/>
-      <c r="AD85" s="41"/>
-      <c r="AE85" s="41"/>
-      <c r="AF85" s="41"/>
-      <c r="AG85" s="41"/>
-      <c r="AH85" s="41"/>
-      <c r="AI85" s="41"/>
-      <c r="AJ85" s="41"/>
-      <c r="AK85" s="41"/>
-      <c r="AL85" s="41"/>
-      <c r="AM85" s="41"/>
-      <c r="AN85" s="41"/>
-      <c r="AO85" s="41"/>
-      <c r="AP85" s="41"/>
-      <c r="AQ85" s="41"/>
-      <c r="AR85" s="41"/>
-      <c r="AS85" s="41"/>
-      <c r="AT85" s="41"/>
-      <c r="AU85" s="41"/>
-      <c r="AV85" s="41"/>
-      <c r="AW85" s="41"/>
-      <c r="AX85" s="41"/>
+      <c r="R85" s="44"/>
+      <c r="S85" s="44"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="44"/>
+      <c r="AA85" s="44"/>
+      <c r="AB85" s="44"/>
+      <c r="AC85" s="44"/>
+      <c r="AD85" s="44"/>
+      <c r="AE85" s="44"/>
+      <c r="AF85" s="44"/>
+      <c r="AG85" s="44"/>
+      <c r="AH85" s="44"/>
+      <c r="AI85" s="44"/>
+      <c r="AJ85" s="44"/>
+      <c r="AK85" s="44"/>
+      <c r="AL85" s="44"/>
+      <c r="AM85" s="44"/>
+      <c r="AN85" s="44"/>
+      <c r="AO85" s="44"/>
+      <c r="AP85" s="44"/>
+      <c r="AQ85" s="44"/>
+      <c r="AR85" s="44"/>
+      <c r="AS85" s="44"/>
+      <c r="AT85" s="44"/>
+      <c r="AU85" s="44"/>
+      <c r="AV85" s="44"/>
+      <c r="AW85" s="44"/>
+      <c r="AX85" s="44"/>
     </row>
     <row r="86" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39" t="s">
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
-      <c r="AA86" s="39"/>
-      <c r="AB86" s="39"/>
-      <c r="AC86" s="39"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="39"/>
-      <c r="AH86" s="39"/>
-      <c r="AI86" s="39"/>
-      <c r="AJ86" s="39"/>
-      <c r="AK86" s="39"/>
-      <c r="AL86" s="39"/>
-      <c r="AM86" s="39"/>
-      <c r="AN86" s="39"/>
-      <c r="AO86" s="39"/>
-      <c r="AP86" s="39"/>
-      <c r="AQ86" s="39"/>
-      <c r="AR86" s="39"/>
-      <c r="AS86" s="39"/>
-      <c r="AT86" s="39"/>
-      <c r="AU86" s="39"/>
-      <c r="AV86" s="39"/>
-      <c r="AW86" s="39"/>
-      <c r="AX86" s="39"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="21"/>
+      <c r="AD86" s="21"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="21"/>
+      <c r="AK86" s="21"/>
+      <c r="AL86" s="21"/>
+      <c r="AM86" s="21"/>
+      <c r="AN86" s="21"/>
+      <c r="AO86" s="21"/>
+      <c r="AP86" s="21"/>
+      <c r="AQ86" s="21"/>
+      <c r="AR86" s="21"/>
+      <c r="AS86" s="21"/>
+      <c r="AT86" s="21"/>
+      <c r="AU86" s="21"/>
+      <c r="AV86" s="21"/>
+      <c r="AW86" s="21"/>
+      <c r="AX86" s="21"/>
     </row>
     <row r="87" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39" t="s">
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="39"/>
-      <c r="AA87" s="39"/>
-      <c r="AB87" s="39"/>
-      <c r="AC87" s="39"/>
-      <c r="AD87" s="39"/>
-      <c r="AE87" s="39"/>
-      <c r="AF87" s="39"/>
-      <c r="AG87" s="39"/>
-      <c r="AH87" s="39"/>
-      <c r="AI87" s="39"/>
-      <c r="AJ87" s="39"/>
-      <c r="AK87" s="39"/>
-      <c r="AL87" s="39"/>
-      <c r="AM87" s="39"/>
-      <c r="AN87" s="39"/>
-      <c r="AO87" s="39"/>
-      <c r="AP87" s="39"/>
-      <c r="AQ87" s="39"/>
-      <c r="AR87" s="39"/>
-      <c r="AS87" s="39"/>
-      <c r="AT87" s="39"/>
-      <c r="AU87" s="39"/>
-      <c r="AV87" s="39"/>
-      <c r="AW87" s="39"/>
-      <c r="AX87" s="39"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
     </row>
     <row r="88" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F88" s="39" t="s">
+      <c r="F88" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39" t="s">
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
-      <c r="AA88" s="39"/>
-      <c r="AB88" s="39"/>
-      <c r="AC88" s="39"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="39"/>
-      <c r="AI88" s="39"/>
-      <c r="AJ88" s="39"/>
-      <c r="AK88" s="39"/>
-      <c r="AL88" s="39"/>
-      <c r="AM88" s="39"/>
-      <c r="AN88" s="39"/>
-      <c r="AO88" s="39"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="39"/>
-      <c r="AR88" s="39"/>
-      <c r="AS88" s="39"/>
-      <c r="AT88" s="39"/>
-      <c r="AU88" s="39"/>
-      <c r="AV88" s="39"/>
-      <c r="AW88" s="39"/>
-      <c r="AX88" s="39"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="21"/>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="21"/>
+      <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="21"/>
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="21"/>
+      <c r="AX88" s="21"/>
     </row>
     <row r="89" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F89" s="39" t="s">
+      <c r="F89" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39" t="s">
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
-      <c r="Z89" s="39"/>
-      <c r="AA89" s="39"/>
-      <c r="AB89" s="39"/>
-      <c r="AC89" s="39"/>
-      <c r="AD89" s="39"/>
-      <c r="AE89" s="39"/>
-      <c r="AF89" s="39"/>
-      <c r="AG89" s="39"/>
-      <c r="AH89" s="39"/>
-      <c r="AI89" s="39"/>
-      <c r="AJ89" s="39"/>
-      <c r="AK89" s="39"/>
-      <c r="AL89" s="39"/>
-      <c r="AM89" s="39"/>
-      <c r="AN89" s="39"/>
-      <c r="AO89" s="39"/>
-      <c r="AP89" s="39"/>
-      <c r="AQ89" s="39"/>
-      <c r="AR89" s="39"/>
-      <c r="AS89" s="39"/>
-      <c r="AT89" s="39"/>
-      <c r="AU89" s="39"/>
-      <c r="AV89" s="39"/>
-      <c r="AW89" s="39"/>
-      <c r="AX89" s="39"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
     </row>
     <row r="90" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F90" s="39" t="s">
+      <c r="F90" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="28" t="s">
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39"/>
-      <c r="AA90" s="39"/>
-      <c r="AB90" s="39"/>
-      <c r="AC90" s="39"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="39"/>
-      <c r="AH90" s="39"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="39"/>
-      <c r="AK90" s="39"/>
-      <c r="AL90" s="39"/>
-      <c r="AM90" s="39"/>
-      <c r="AN90" s="39"/>
-      <c r="AO90" s="39"/>
-      <c r="AP90" s="39"/>
-      <c r="AQ90" s="39"/>
-      <c r="AR90" s="39"/>
-      <c r="AS90" s="39"/>
-      <c r="AT90" s="39"/>
-      <c r="AU90" s="39"/>
-      <c r="AV90" s="39"/>
-      <c r="AW90" s="39"/>
-      <c r="AX90" s="39"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="21"/>
+      <c r="AC90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
+      <c r="AF90" s="21"/>
+      <c r="AG90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="21"/>
+      <c r="AL90" s="21"/>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="21"/>
+      <c r="AO90" s="21"/>
+      <c r="AP90" s="21"/>
+      <c r="AQ90" s="21"/>
+      <c r="AR90" s="21"/>
+      <c r="AS90" s="21"/>
+      <c r="AT90" s="21"/>
+      <c r="AU90" s="21"/>
+      <c r="AV90" s="21"/>
+      <c r="AW90" s="21"/>
+      <c r="AX90" s="21"/>
     </row>
     <row r="91" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F91" s="39" t="s">
+      <c r="F91" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="28" t="s">
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="39"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="39"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="39"/>
-      <c r="AK91" s="39"/>
-      <c r="AL91" s="39"/>
-      <c r="AM91" s="39"/>
-      <c r="AN91" s="39"/>
-      <c r="AO91" s="39"/>
-      <c r="AP91" s="39"/>
-      <c r="AQ91" s="39"/>
-      <c r="AR91" s="39"/>
-      <c r="AS91" s="39"/>
-      <c r="AT91" s="39"/>
-      <c r="AU91" s="39"/>
-      <c r="AV91" s="39"/>
-      <c r="AW91" s="39"/>
-      <c r="AX91" s="39"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="21"/>
+      <c r="AL91" s="21"/>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="21"/>
+      <c r="AO91" s="21"/>
+      <c r="AP91" s="21"/>
+      <c r="AQ91" s="21"/>
+      <c r="AR91" s="21"/>
+      <c r="AS91" s="21"/>
+      <c r="AT91" s="21"/>
+      <c r="AU91" s="21"/>
+      <c r="AV91" s="21"/>
+      <c r="AW91" s="21"/>
+      <c r="AX91" s="21"/>
     </row>
     <row r="92" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="28" t="s">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
-      <c r="AA92" s="39"/>
-      <c r="AB92" s="39"/>
-      <c r="AC92" s="39"/>
-      <c r="AD92" s="39"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="39"/>
-      <c r="AH92" s="39"/>
-      <c r="AI92" s="39"/>
-      <c r="AJ92" s="39"/>
-      <c r="AK92" s="39"/>
-      <c r="AL92" s="39"/>
-      <c r="AM92" s="39"/>
-      <c r="AN92" s="39"/>
-      <c r="AO92" s="39"/>
-      <c r="AP92" s="39"/>
-      <c r="AQ92" s="39"/>
-      <c r="AR92" s="39"/>
-      <c r="AS92" s="39"/>
-      <c r="AT92" s="39"/>
-      <c r="AU92" s="39"/>
-      <c r="AV92" s="39"/>
-      <c r="AW92" s="39"/>
-      <c r="AX92" s="39"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="21"/>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+      <c r="AP92" s="21"/>
+      <c r="AQ92" s="21"/>
+      <c r="AR92" s="21"/>
+      <c r="AS92" s="21"/>
+      <c r="AT92" s="21"/>
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="21"/>
+      <c r="AX92" s="21"/>
     </row>
     <row r="93" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F93" s="39" t="s">
+      <c r="F93" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39" t="s">
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
-      <c r="Z93" s="39"/>
-      <c r="AA93" s="39"/>
-      <c r="AB93" s="39"/>
-      <c r="AC93" s="39"/>
-      <c r="AD93" s="39"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="39"/>
-      <c r="AG93" s="39"/>
-      <c r="AH93" s="39"/>
-      <c r="AI93" s="39"/>
-      <c r="AJ93" s="39"/>
-      <c r="AK93" s="39"/>
-      <c r="AL93" s="39"/>
-      <c r="AM93" s="39"/>
-      <c r="AN93" s="39"/>
-      <c r="AO93" s="39"/>
-      <c r="AP93" s="39"/>
-      <c r="AQ93" s="39"/>
-      <c r="AR93" s="39"/>
-      <c r="AS93" s="39"/>
-      <c r="AT93" s="39"/>
-      <c r="AU93" s="39"/>
-      <c r="AV93" s="39"/>
-      <c r="AW93" s="39"/>
-      <c r="AX93" s="39"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="21"/>
+      <c r="AK93" s="21"/>
+      <c r="AL93" s="21"/>
+      <c r="AM93" s="21"/>
+      <c r="AN93" s="21"/>
+      <c r="AO93" s="21"/>
+      <c r="AP93" s="21"/>
+      <c r="AQ93" s="21"/>
+      <c r="AR93" s="21"/>
+      <c r="AS93" s="21"/>
+      <c r="AT93" s="21"/>
+      <c r="AU93" s="21"/>
+      <c r="AV93" s="21"/>
+      <c r="AW93" s="21"/>
+      <c r="AX93" s="21"/>
     </row>
     <row r="95" spans="4:50" x14ac:dyDescent="0.15">
       <c r="F95" s="2" t="s">
@@ -5952,7 +6257,7 @@
       </c>
     </row>
     <row r="150" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="D150" s="37" t="s">
+      <c r="D150" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -5960,7 +6265,7 @@
       </c>
     </row>
     <row r="151" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="D151" s="37" t="s">
+      <c r="D151" s="13" t="s">
         <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -5968,75 +6273,75 @@
       </c>
     </row>
     <row r="152" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="D152" s="37"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="D153" s="37"/>
-      <c r="E153" s="39" t="s">
+      <c r="D153" s="13"/>
+      <c r="E153" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="39"/>
-      <c r="J153" s="39"/>
-      <c r="K153" s="39" t="s">
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="L153" s="39"/>
-      <c r="M153" s="39"/>
-      <c r="N153" s="39"/>
-      <c r="O153" s="39"/>
-      <c r="P153" s="39"/>
-      <c r="Q153" s="39"/>
-      <c r="R153" s="39"/>
-      <c r="S153" s="39"/>
-      <c r="T153" s="39"/>
-      <c r="U153" s="39"/>
-      <c r="V153" s="39"/>
-      <c r="W153" s="39"/>
-      <c r="X153" s="39"/>
-      <c r="Y153" s="39"/>
-      <c r="Z153" s="39"/>
-      <c r="AA153" s="39"/>
-      <c r="AB153" s="39"/>
-      <c r="AC153" s="39"/>
-      <c r="AD153" s="39"/>
-      <c r="AE153" s="39"/>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="21"/>
+      <c r="Q153" s="21"/>
+      <c r="R153" s="21"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="21"/>
+      <c r="X153" s="21"/>
+      <c r="Y153" s="21"/>
+      <c r="Z153" s="21"/>
+      <c r="AA153" s="21"/>
+      <c r="AB153" s="21"/>
+      <c r="AC153" s="21"/>
+      <c r="AD153" s="21"/>
+      <c r="AE153" s="21"/>
     </row>
     <row r="154" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="D154" s="37"/>
-      <c r="E154" s="39" t="s">
+      <c r="D154" s="13"/>
+      <c r="E154" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="39"/>
-      <c r="I154" s="39"/>
-      <c r="J154" s="39"/>
-      <c r="K154" s="39" t="s">
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="21"/>
+      <c r="K154" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="L154" s="39"/>
-      <c r="M154" s="39"/>
-      <c r="N154" s="39"/>
-      <c r="O154" s="39"/>
-      <c r="P154" s="39"/>
-      <c r="Q154" s="39"/>
-      <c r="R154" s="39"/>
-      <c r="S154" s="39"/>
-      <c r="T154" s="39"/>
-      <c r="U154" s="39"/>
-      <c r="V154" s="39"/>
-      <c r="W154" s="39"/>
-      <c r="X154" s="39"/>
-      <c r="Y154" s="39"/>
-      <c r="Z154" s="39"/>
-      <c r="AA154" s="39"/>
-      <c r="AB154" s="39"/>
-      <c r="AC154" s="39"/>
-      <c r="AD154" s="39"/>
-      <c r="AE154" s="39"/>
+      <c r="L154" s="21"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="21"/>
+      <c r="O154" s="21"/>
+      <c r="P154" s="21"/>
+      <c r="Q154" s="21"/>
+      <c r="R154" s="21"/>
+      <c r="S154" s="21"/>
+      <c r="T154" s="21"/>
+      <c r="U154" s="21"/>
+      <c r="V154" s="21"/>
+      <c r="W154" s="21"/>
+      <c r="X154" s="21"/>
+      <c r="Y154" s="21"/>
+      <c r="Z154" s="21"/>
+      <c r="AA154" s="21"/>
+      <c r="AB154" s="21"/>
+      <c r="AC154" s="21"/>
+      <c r="AD154" s="21"/>
+      <c r="AE154" s="21"/>
     </row>
     <row r="166" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D166" s="1" t="s">
@@ -6051,57 +6356,57 @@
     </row>
     <row r="168" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D168" s="1"/>
-      <c r="E168" s="39" t="s">
+      <c r="E168" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F168" s="39"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="39"/>
-      <c r="I168" s="39"/>
-      <c r="J168" s="39"/>
-      <c r="K168" s="39"/>
-      <c r="L168" s="39"/>
-      <c r="M168" s="39" t="s">
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+      <c r="J168" s="21"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="21"/>
+      <c r="M168" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="N168" s="39"/>
-      <c r="O168" s="39"/>
-      <c r="P168" s="39"/>
-      <c r="Q168" s="39"/>
-      <c r="R168" s="39"/>
-      <c r="S168" s="39"/>
-      <c r="T168" s="39"/>
-      <c r="U168" s="39"/>
-      <c r="V168" s="39"/>
-      <c r="W168" s="39"/>
-      <c r="X168" s="39"/>
+      <c r="N168" s="21"/>
+      <c r="O168" s="21"/>
+      <c r="P168" s="21"/>
+      <c r="Q168" s="21"/>
+      <c r="R168" s="21"/>
+      <c r="S168" s="21"/>
+      <c r="T168" s="21"/>
+      <c r="U168" s="21"/>
+      <c r="V168" s="21"/>
+      <c r="W168" s="21"/>
+      <c r="X168" s="21"/>
     </row>
     <row r="169" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D169" s="1"/>
-      <c r="E169" s="39" t="s">
+      <c r="E169" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F169" s="39"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="39"/>
-      <c r="I169" s="39"/>
-      <c r="J169" s="39"/>
-      <c r="K169" s="39"/>
-      <c r="L169" s="39"/>
-      <c r="M169" s="39" t="s">
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="21"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="21"/>
+      <c r="M169" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="N169" s="39"/>
-      <c r="O169" s="39"/>
-      <c r="P169" s="39"/>
-      <c r="Q169" s="39"/>
-      <c r="R169" s="39"/>
-      <c r="S169" s="39"/>
-      <c r="T169" s="39"/>
-      <c r="U169" s="39"/>
-      <c r="V169" s="39"/>
-      <c r="W169" s="39"/>
-      <c r="X169" s="39"/>
+      <c r="N169" s="21"/>
+      <c r="O169" s="21"/>
+      <c r="P169" s="21"/>
+      <c r="Q169" s="21"/>
+      <c r="R169" s="21"/>
+      <c r="S169" s="21"/>
+      <c r="T169" s="21"/>
+      <c r="U169" s="21"/>
+      <c r="V169" s="21"/>
+      <c r="W169" s="21"/>
+      <c r="X169" s="21"/>
     </row>
     <row r="170" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D170" s="1"/>
@@ -6135,11 +6440,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E168:L168"/>
-    <mergeCell ref="E169:L169"/>
-    <mergeCell ref="M169:X169"/>
-    <mergeCell ref="M168:X168"/>
-    <mergeCell ref="Q93:AX93"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I6:S6"/>
+    <mergeCell ref="I5:S5"/>
+    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="F92:P92"/>
+    <mergeCell ref="F91:P91"/>
+    <mergeCell ref="F90:P90"/>
+    <mergeCell ref="F89:P89"/>
+    <mergeCell ref="F88:P88"/>
     <mergeCell ref="F85:P85"/>
     <mergeCell ref="Q85:AX85"/>
     <mergeCell ref="E154:J154"/>
@@ -6156,17 +6467,11 @@
     <mergeCell ref="Q87:AX87"/>
     <mergeCell ref="Q86:AX86"/>
     <mergeCell ref="F93:P93"/>
-    <mergeCell ref="F92:P92"/>
-    <mergeCell ref="F91:P91"/>
-    <mergeCell ref="F90:P90"/>
-    <mergeCell ref="F89:P89"/>
-    <mergeCell ref="F88:P88"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I6:S6"/>
-    <mergeCell ref="I5:S5"/>
-    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="E168:L168"/>
+    <mergeCell ref="E169:L169"/>
+    <mergeCell ref="M169:X169"/>
+    <mergeCell ref="M168:X168"/>
+    <mergeCell ref="Q93:AX93"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6184,7 +6489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B376DD-A171-4967-ABE2-5707C7E638CA}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6202,19 +6509,19 @@
       <c r="B2" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="16" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6222,19 +6529,19 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="15">
         <v>44951</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="17">
         <v>45041</v>
       </c>
     </row>
@@ -6242,19 +6549,19 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="15">
         <v>45058</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="17">
         <v>45148</v>
       </c>
     </row>
@@ -6262,84 +6569,279 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="45"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="45"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041F01A7-9AC7-4247-919D-D159489BC021}">
+  <dimension ref="B2:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="39.5" style="2"/>
+    <col min="5" max="5" width="82.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="39.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="75" x14ac:dyDescent="0.15">
+      <c r="B5" s="60">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="60">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="60">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:D27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{57632E17-534A-4668-9270-52475889D30B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LINEアプリ_環境設定.xlsx
+++ b/LINEアプリ_環境設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\juju-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0F568-8DFB-419C-9C75-7079E66B7190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9496D3-91ED-483F-BDE3-9D7B62A94880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28095" yWindow="150" windowWidth="25740" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25530" yWindow="195" windowWidth="20460" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="環境" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Google Apps Script（bot）" sheetId="7" r:id="rId4"/>
     <sheet name="SSL証明書管理" sheetId="8" r:id="rId5"/>
     <sheet name="環境変数" sheetId="9" r:id="rId6"/>
+    <sheet name="テスト環境" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
   <si>
     <t>■</t>
     <phoneticPr fontId="1"/>
@@ -1818,6 +1819,14 @@
     <rPh sb="39" eb="41">
       <t>リュウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://153.120.44.163/booking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x.nawata@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2288,32 +2297,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="31" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2342,6 +2342,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2351,19 +2354,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2378,7 +2405,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,24 +2419,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3570,7 +3579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AY88"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3611,638 +3620,638 @@
       <c r="C9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
     </row>
     <row r="10" spans="2:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="27" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="22"/>
-      <c r="AY11" s="22"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-      <c r="AX12" s="22"/>
-      <c r="AY12" s="22"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-      <c r="AX14" s="22"/>
-      <c r="AY14" s="22"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C15" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="22" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="22"/>
-      <c r="AY15" s="22"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="39" t="s">
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="40"/>
-      <c r="AW16" s="40"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="41"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="39"/>
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C17" s="9">
         <v>8</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="21" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21" t="s">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="39" t="s">
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="41"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="39"/>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C18" s="9">
         <v>9</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="21" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="22" t="s">
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="22"/>
-      <c r="AR18" s="22"/>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="22"/>
-      <c r="AU18" s="22"/>
-      <c r="AV18" s="22"/>
-      <c r="AW18" s="22"/>
-      <c r="AX18" s="22"/>
-      <c r="AY18" s="22"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C19" s="9">
         <v>10</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="22" t="s">
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="22"/>
-      <c r="AR19" s="22"/>
-      <c r="AS19" s="22"/>
-      <c r="AT19" s="22"/>
-      <c r="AU19" s="22"/>
-      <c r="AV19" s="22"/>
-      <c r="AW19" s="22"/>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
@@ -4399,186 +4408,186 @@
       <c r="E48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="32"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="29"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="35"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="32"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="35"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="32"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="35"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="35"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="32"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="35"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="32"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="35"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="32"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="35"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="32"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="38"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="35"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.15">
       <c r="C58" s="2" t="s">
@@ -4615,186 +4624,186 @@
       <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="31"/>
-      <c r="X64" s="32"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="29"/>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G65" s="33"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="35"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="32"/>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G66" s="33"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="35"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="32"/>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="35"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="31"/>
+      <c r="X67" s="32"/>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G68" s="33"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="35"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
+      <c r="X68" s="32"/>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G69" s="33"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="35"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="32"/>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G70" s="33"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="35"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="32"/>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G71" s="33"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="35"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="32"/>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="38"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="35"/>
     </row>
     <row r="74" spans="3:24" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
@@ -4866,22 +4875,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G64:X72"/>
-    <mergeCell ref="G48:X56"/>
-    <mergeCell ref="AG15:AY15"/>
-    <mergeCell ref="AG16:AY16"/>
-    <mergeCell ref="AG17:AY17"/>
-    <mergeCell ref="AG18:AY18"/>
-    <mergeCell ref="AG19:AY19"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG9:AY9"/>
-    <mergeCell ref="AG10:AY10"/>
-    <mergeCell ref="AG11:AY11"/>
-    <mergeCell ref="AG12:AY12"/>
-    <mergeCell ref="AG13:AY13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
     <mergeCell ref="AG14:AY14"/>
     <mergeCell ref="E13:L13"/>
     <mergeCell ref="E15:L15"/>
@@ -4898,11 +4896,22 @@
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="AG9:AY9"/>
+    <mergeCell ref="AG10:AY10"/>
+    <mergeCell ref="AG11:AY11"/>
+    <mergeCell ref="AG12:AY12"/>
+    <mergeCell ref="AG13:AY13"/>
+    <mergeCell ref="G64:X72"/>
+    <mergeCell ref="G48:X56"/>
+    <mergeCell ref="AG15:AY15"/>
+    <mergeCell ref="AG16:AY16"/>
+    <mergeCell ref="AG17:AY17"/>
+    <mergeCell ref="AG18:AY18"/>
+    <mergeCell ref="AG19:AY19"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="M19:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4919,7 +4928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BK130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -5009,405 +5018,405 @@
       </c>
     </row>
     <row r="83" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="49"/>
+      <c r="U83" s="49"/>
+      <c r="V83" s="49"/>
     </row>
     <row r="84" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="43"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="49"/>
+      <c r="U84" s="49"/>
+      <c r="V84" s="49"/>
     </row>
     <row r="85" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="43"/>
-      <c r="S85" s="43"/>
-      <c r="T85" s="43"/>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="49"/>
+      <c r="V85" s="49"/>
     </row>
     <row r="86" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="43"/>
-      <c r="U86" s="43"/>
-      <c r="V86" s="43"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="49"/>
+      <c r="V86" s="49"/>
     </row>
     <row r="87" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
     </row>
     <row r="88" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="49"/>
+      <c r="V88" s="49"/>
     </row>
     <row r="89" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
-      <c r="R89" s="43"/>
-      <c r="S89" s="43"/>
-      <c r="T89" s="43"/>
-      <c r="U89" s="43"/>
-      <c r="V89" s="43"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="49"/>
+      <c r="V89" s="49"/>
     </row>
     <row r="90" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
-      <c r="R90" s="43"/>
-      <c r="S90" s="43"/>
-      <c r="T90" s="43"/>
-      <c r="U90" s="43"/>
-      <c r="V90" s="43"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
     </row>
     <row r="91" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="43"/>
-      <c r="R91" s="43"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="43"/>
-      <c r="U91" s="43"/>
-      <c r="V91" s="43"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
+      <c r="V91" s="49"/>
     </row>
     <row r="92" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-      <c r="S92" s="43"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="49"/>
     </row>
     <row r="93" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
-      <c r="Q93" s="43"/>
-      <c r="R93" s="43"/>
-      <c r="S93" s="43"/>
-      <c r="T93" s="43"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="49"/>
     </row>
     <row r="94" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
-      <c r="Q94" s="43"/>
-      <c r="R94" s="43"/>
-      <c r="S94" s="43"/>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="49"/>
+      <c r="V94" s="49"/>
     </row>
     <row r="95" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="49"/>
+      <c r="V95" s="49"/>
     </row>
     <row r="96" spans="4:22" x14ac:dyDescent="0.15">
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="49"/>
+      <c r="R96" s="49"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="49"/>
+      <c r="U96" s="49"/>
+      <c r="V96" s="49"/>
     </row>
     <row r="97" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="43"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="49"/>
+      <c r="R97" s="49"/>
+      <c r="S97" s="49"/>
+      <c r="T97" s="49"/>
+      <c r="U97" s="49"/>
+      <c r="V97" s="49"/>
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
-      <c r="R98" s="43"/>
-      <c r="S98" s="43"/>
-      <c r="T98" s="43"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="49"/>
+      <c r="V98" s="49"/>
     </row>
     <row r="99" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="43"/>
-      <c r="S99" s="43"/>
-      <c r="T99" s="43"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="49"/>
+      <c r="V99" s="49"/>
     </row>
     <row r="100" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
-      <c r="R100" s="43"/>
-      <c r="S100" s="43"/>
-      <c r="T100" s="43"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="43"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="49"/>
+      <c r="U100" s="49"/>
+      <c r="V100" s="49"/>
     </row>
     <row r="101" spans="3:22" x14ac:dyDescent="0.15">
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="43"/>
-      <c r="N101" s="43"/>
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
-      <c r="Q101" s="43"/>
-      <c r="R101" s="43"/>
-      <c r="S101" s="43"/>
-      <c r="T101" s="43"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="43"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="49"/>
+      <c r="R101" s="49"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="49"/>
+      <c r="U101" s="49"/>
+      <c r="V101" s="49"/>
     </row>
     <row r="103" spans="3:22" x14ac:dyDescent="0.15">
       <c r="C103" s="2" t="s">
@@ -5501,7 +5510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7785871-57DA-42EE-9501-4E058C584D66}">
   <dimension ref="B2:AX186"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5517,70 +5526,70 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="21" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -5664,463 +5673,463 @@
       </c>
     </row>
     <row r="85" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44" t="s">
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="52"/>
+      <c r="O85" s="52"/>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="R85" s="44"/>
-      <c r="S85" s="44"/>
-      <c r="T85" s="44"/>
-      <c r="U85" s="44"/>
-      <c r="V85" s="44"/>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
-      <c r="Y85" s="44"/>
-      <c r="Z85" s="44"/>
-      <c r="AA85" s="44"/>
-      <c r="AB85" s="44"/>
-      <c r="AC85" s="44"/>
-      <c r="AD85" s="44"/>
-      <c r="AE85" s="44"/>
-      <c r="AF85" s="44"/>
-      <c r="AG85" s="44"/>
-      <c r="AH85" s="44"/>
-      <c r="AI85" s="44"/>
-      <c r="AJ85" s="44"/>
-      <c r="AK85" s="44"/>
-      <c r="AL85" s="44"/>
-      <c r="AM85" s="44"/>
-      <c r="AN85" s="44"/>
-      <c r="AO85" s="44"/>
-      <c r="AP85" s="44"/>
-      <c r="AQ85" s="44"/>
-      <c r="AR85" s="44"/>
-      <c r="AS85" s="44"/>
-      <c r="AT85" s="44"/>
-      <c r="AU85" s="44"/>
-      <c r="AV85" s="44"/>
-      <c r="AW85" s="44"/>
-      <c r="AX85" s="44"/>
+      <c r="R85" s="52"/>
+      <c r="S85" s="52"/>
+      <c r="T85" s="52"/>
+      <c r="U85" s="52"/>
+      <c r="V85" s="52"/>
+      <c r="W85" s="52"/>
+      <c r="X85" s="52"/>
+      <c r="Y85" s="52"/>
+      <c r="Z85" s="52"/>
+      <c r="AA85" s="52"/>
+      <c r="AB85" s="52"/>
+      <c r="AC85" s="52"/>
+      <c r="AD85" s="52"/>
+      <c r="AE85" s="52"/>
+      <c r="AF85" s="52"/>
+      <c r="AG85" s="52"/>
+      <c r="AH85" s="52"/>
+      <c r="AI85" s="52"/>
+      <c r="AJ85" s="52"/>
+      <c r="AK85" s="52"/>
+      <c r="AL85" s="52"/>
+      <c r="AM85" s="52"/>
+      <c r="AN85" s="52"/>
+      <c r="AO85" s="52"/>
+      <c r="AP85" s="52"/>
+      <c r="AQ85" s="52"/>
+      <c r="AR85" s="52"/>
+      <c r="AS85" s="52"/>
+      <c r="AT85" s="52"/>
+      <c r="AU85" s="52"/>
+      <c r="AV85" s="52"/>
+      <c r="AW85" s="52"/>
+      <c r="AX85" s="52"/>
     </row>
     <row r="86" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21" t="s">
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21"/>
-      <c r="AD86" s="21"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-      <c r="AG86" s="21"/>
-      <c r="AH86" s="21"/>
-      <c r="AI86" s="21"/>
-      <c r="AJ86" s="21"/>
-      <c r="AK86" s="21"/>
-      <c r="AL86" s="21"/>
-      <c r="AM86" s="21"/>
-      <c r="AN86" s="21"/>
-      <c r="AO86" s="21"/>
-      <c r="AP86" s="21"/>
-      <c r="AQ86" s="21"/>
-      <c r="AR86" s="21"/>
-      <c r="AS86" s="21"/>
-      <c r="AT86" s="21"/>
-      <c r="AU86" s="21"/>
-      <c r="AV86" s="21"/>
-      <c r="AW86" s="21"/>
-      <c r="AX86" s="21"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
+      <c r="AB86" s="40"/>
+      <c r="AC86" s="40"/>
+      <c r="AD86" s="40"/>
+      <c r="AE86" s="40"/>
+      <c r="AF86" s="40"/>
+      <c r="AG86" s="40"/>
+      <c r="AH86" s="40"/>
+      <c r="AI86" s="40"/>
+      <c r="AJ86" s="40"/>
+      <c r="AK86" s="40"/>
+      <c r="AL86" s="40"/>
+      <c r="AM86" s="40"/>
+      <c r="AN86" s="40"/>
+      <c r="AO86" s="40"/>
+      <c r="AP86" s="40"/>
+      <c r="AQ86" s="40"/>
+      <c r="AR86" s="40"/>
+      <c r="AS86" s="40"/>
+      <c r="AT86" s="40"/>
+      <c r="AU86" s="40"/>
+      <c r="AV86" s="40"/>
+      <c r="AW86" s="40"/>
+      <c r="AX86" s="40"/>
     </row>
     <row r="87" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21" t="s">
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="Z87" s="21"/>
-      <c r="AA87" s="21"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="21"/>
-      <c r="AD87" s="21"/>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="21"/>
-      <c r="AG87" s="21"/>
-      <c r="AH87" s="21"/>
-      <c r="AI87" s="21"/>
-      <c r="AJ87" s="21"/>
-      <c r="AK87" s="21"/>
-      <c r="AL87" s="21"/>
-      <c r="AM87" s="21"/>
-      <c r="AN87" s="21"/>
-      <c r="AO87" s="21"/>
-      <c r="AP87" s="21"/>
-      <c r="AQ87" s="21"/>
-      <c r="AR87" s="21"/>
-      <c r="AS87" s="21"/>
-      <c r="AT87" s="21"/>
-      <c r="AU87" s="21"/>
-      <c r="AV87" s="21"/>
-      <c r="AW87" s="21"/>
-      <c r="AX87" s="21"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="40"/>
+      <c r="AB87" s="40"/>
+      <c r="AC87" s="40"/>
+      <c r="AD87" s="40"/>
+      <c r="AE87" s="40"/>
+      <c r="AF87" s="40"/>
+      <c r="AG87" s="40"/>
+      <c r="AH87" s="40"/>
+      <c r="AI87" s="40"/>
+      <c r="AJ87" s="40"/>
+      <c r="AK87" s="40"/>
+      <c r="AL87" s="40"/>
+      <c r="AM87" s="40"/>
+      <c r="AN87" s="40"/>
+      <c r="AO87" s="40"/>
+      <c r="AP87" s="40"/>
+      <c r="AQ87" s="40"/>
+      <c r="AR87" s="40"/>
+      <c r="AS87" s="40"/>
+      <c r="AT87" s="40"/>
+      <c r="AU87" s="40"/>
+      <c r="AV87" s="40"/>
+      <c r="AW87" s="40"/>
+      <c r="AX87" s="40"/>
     </row>
     <row r="88" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21" t="s">
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="21"/>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="21"/>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="21"/>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="21"/>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="21"/>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="21"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="40"/>
+      <c r="AC88" s="40"/>
+      <c r="AD88" s="40"/>
+      <c r="AE88" s="40"/>
+      <c r="AF88" s="40"/>
+      <c r="AG88" s="40"/>
+      <c r="AH88" s="40"/>
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="40"/>
+      <c r="AK88" s="40"/>
+      <c r="AL88" s="40"/>
+      <c r="AM88" s="40"/>
+      <c r="AN88" s="40"/>
+      <c r="AO88" s="40"/>
+      <c r="AP88" s="40"/>
+      <c r="AQ88" s="40"/>
+      <c r="AR88" s="40"/>
+      <c r="AS88" s="40"/>
+      <c r="AT88" s="40"/>
+      <c r="AU88" s="40"/>
+      <c r="AV88" s="40"/>
+      <c r="AW88" s="40"/>
+      <c r="AX88" s="40"/>
     </row>
     <row r="89" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21" t="s">
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="21"/>
-      <c r="AJ89" s="21"/>
-      <c r="AK89" s="21"/>
-      <c r="AL89" s="21"/>
-      <c r="AM89" s="21"/>
-      <c r="AN89" s="21"/>
-      <c r="AO89" s="21"/>
-      <c r="AP89" s="21"/>
-      <c r="AQ89" s="21"/>
-      <c r="AR89" s="21"/>
-      <c r="AS89" s="21"/>
-      <c r="AT89" s="21"/>
-      <c r="AU89" s="21"/>
-      <c r="AV89" s="21"/>
-      <c r="AW89" s="21"/>
-      <c r="AX89" s="21"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
+      <c r="AA89" s="40"/>
+      <c r="AB89" s="40"/>
+      <c r="AC89" s="40"/>
+      <c r="AD89" s="40"/>
+      <c r="AE89" s="40"/>
+      <c r="AF89" s="40"/>
+      <c r="AG89" s="40"/>
+      <c r="AH89" s="40"/>
+      <c r="AI89" s="40"/>
+      <c r="AJ89" s="40"/>
+      <c r="AK89" s="40"/>
+      <c r="AL89" s="40"/>
+      <c r="AM89" s="40"/>
+      <c r="AN89" s="40"/>
+      <c r="AO89" s="40"/>
+      <c r="AP89" s="40"/>
+      <c r="AQ89" s="40"/>
+      <c r="AR89" s="40"/>
+      <c r="AS89" s="40"/>
+      <c r="AT89" s="40"/>
+      <c r="AU89" s="40"/>
+      <c r="AV89" s="40"/>
+      <c r="AW89" s="40"/>
+      <c r="AX89" s="40"/>
     </row>
     <row r="90" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F90" s="21" t="s">
+      <c r="F90" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="27" t="s">
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
-      <c r="X90" s="21"/>
-      <c r="Y90" s="21"/>
-      <c r="Z90" s="21"/>
-      <c r="AA90" s="21"/>
-      <c r="AB90" s="21"/>
-      <c r="AC90" s="21"/>
-      <c r="AD90" s="21"/>
-      <c r="AE90" s="21"/>
-      <c r="AF90" s="21"/>
-      <c r="AG90" s="21"/>
-      <c r="AH90" s="21"/>
-      <c r="AI90" s="21"/>
-      <c r="AJ90" s="21"/>
-      <c r="AK90" s="21"/>
-      <c r="AL90" s="21"/>
-      <c r="AM90" s="21"/>
-      <c r="AN90" s="21"/>
-      <c r="AO90" s="21"/>
-      <c r="AP90" s="21"/>
-      <c r="AQ90" s="21"/>
-      <c r="AR90" s="21"/>
-      <c r="AS90" s="21"/>
-      <c r="AT90" s="21"/>
-      <c r="AU90" s="21"/>
-      <c r="AV90" s="21"/>
-      <c r="AW90" s="21"/>
-      <c r="AX90" s="21"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
+      <c r="Z90" s="40"/>
+      <c r="AA90" s="40"/>
+      <c r="AB90" s="40"/>
+      <c r="AC90" s="40"/>
+      <c r="AD90" s="40"/>
+      <c r="AE90" s="40"/>
+      <c r="AF90" s="40"/>
+      <c r="AG90" s="40"/>
+      <c r="AH90" s="40"/>
+      <c r="AI90" s="40"/>
+      <c r="AJ90" s="40"/>
+      <c r="AK90" s="40"/>
+      <c r="AL90" s="40"/>
+      <c r="AM90" s="40"/>
+      <c r="AN90" s="40"/>
+      <c r="AO90" s="40"/>
+      <c r="AP90" s="40"/>
+      <c r="AQ90" s="40"/>
+      <c r="AR90" s="40"/>
+      <c r="AS90" s="40"/>
+      <c r="AT90" s="40"/>
+      <c r="AU90" s="40"/>
+      <c r="AV90" s="40"/>
+      <c r="AW90" s="40"/>
+      <c r="AX90" s="40"/>
     </row>
     <row r="91" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="27" t="s">
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="21"/>
-      <c r="V91" s="21"/>
-      <c r="W91" s="21"/>
-      <c r="X91" s="21"/>
-      <c r="Y91" s="21"/>
-      <c r="Z91" s="21"/>
-      <c r="AA91" s="21"/>
-      <c r="AB91" s="21"/>
-      <c r="AC91" s="21"/>
-      <c r="AD91" s="21"/>
-      <c r="AE91" s="21"/>
-      <c r="AF91" s="21"/>
-      <c r="AG91" s="21"/>
-      <c r="AH91" s="21"/>
-      <c r="AI91" s="21"/>
-      <c r="AJ91" s="21"/>
-      <c r="AK91" s="21"/>
-      <c r="AL91" s="21"/>
-      <c r="AM91" s="21"/>
-      <c r="AN91" s="21"/>
-      <c r="AO91" s="21"/>
-      <c r="AP91" s="21"/>
-      <c r="AQ91" s="21"/>
-      <c r="AR91" s="21"/>
-      <c r="AS91" s="21"/>
-      <c r="AT91" s="21"/>
-      <c r="AU91" s="21"/>
-      <c r="AV91" s="21"/>
-      <c r="AW91" s="21"/>
-      <c r="AX91" s="21"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="40"/>
+      <c r="AA91" s="40"/>
+      <c r="AB91" s="40"/>
+      <c r="AC91" s="40"/>
+      <c r="AD91" s="40"/>
+      <c r="AE91" s="40"/>
+      <c r="AF91" s="40"/>
+      <c r="AG91" s="40"/>
+      <c r="AH91" s="40"/>
+      <c r="AI91" s="40"/>
+      <c r="AJ91" s="40"/>
+      <c r="AK91" s="40"/>
+      <c r="AL91" s="40"/>
+      <c r="AM91" s="40"/>
+      <c r="AN91" s="40"/>
+      <c r="AO91" s="40"/>
+      <c r="AP91" s="40"/>
+      <c r="AQ91" s="40"/>
+      <c r="AR91" s="40"/>
+      <c r="AS91" s="40"/>
+      <c r="AT91" s="40"/>
+      <c r="AU91" s="40"/>
+      <c r="AV91" s="40"/>
+      <c r="AW91" s="40"/>
+      <c r="AX91" s="40"/>
     </row>
     <row r="92" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="27" t="s">
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="21"/>
-      <c r="AI92" s="21"/>
-      <c r="AJ92" s="21"/>
-      <c r="AK92" s="21"/>
-      <c r="AL92" s="21"/>
-      <c r="AM92" s="21"/>
-      <c r="AN92" s="21"/>
-      <c r="AO92" s="21"/>
-      <c r="AP92" s="21"/>
-      <c r="AQ92" s="21"/>
-      <c r="AR92" s="21"/>
-      <c r="AS92" s="21"/>
-      <c r="AT92" s="21"/>
-      <c r="AU92" s="21"/>
-      <c r="AV92" s="21"/>
-      <c r="AW92" s="21"/>
-      <c r="AX92" s="21"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
+      <c r="Z92" s="40"/>
+      <c r="AA92" s="40"/>
+      <c r="AB92" s="40"/>
+      <c r="AC92" s="40"/>
+      <c r="AD92" s="40"/>
+      <c r="AE92" s="40"/>
+      <c r="AF92" s="40"/>
+      <c r="AG92" s="40"/>
+      <c r="AH92" s="40"/>
+      <c r="AI92" s="40"/>
+      <c r="AJ92" s="40"/>
+      <c r="AK92" s="40"/>
+      <c r="AL92" s="40"/>
+      <c r="AM92" s="40"/>
+      <c r="AN92" s="40"/>
+      <c r="AO92" s="40"/>
+      <c r="AP92" s="40"/>
+      <c r="AQ92" s="40"/>
+      <c r="AR92" s="40"/>
+      <c r="AS92" s="40"/>
+      <c r="AT92" s="40"/>
+      <c r="AU92" s="40"/>
+      <c r="AV92" s="40"/>
+      <c r="AW92" s="40"/>
+      <c r="AX92" s="40"/>
     </row>
     <row r="93" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F93" s="21" t="s">
+      <c r="F93" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21" t="s">
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
-      <c r="Y93" s="21"/>
-      <c r="Z93" s="21"/>
-      <c r="AA93" s="21"/>
-      <c r="AB93" s="21"/>
-      <c r="AC93" s="21"/>
-      <c r="AD93" s="21"/>
-      <c r="AE93" s="21"/>
-      <c r="AF93" s="21"/>
-      <c r="AG93" s="21"/>
-      <c r="AH93" s="21"/>
-      <c r="AI93" s="21"/>
-      <c r="AJ93" s="21"/>
-      <c r="AK93" s="21"/>
-      <c r="AL93" s="21"/>
-      <c r="AM93" s="21"/>
-      <c r="AN93" s="21"/>
-      <c r="AO93" s="21"/>
-      <c r="AP93" s="21"/>
-      <c r="AQ93" s="21"/>
-      <c r="AR93" s="21"/>
-      <c r="AS93" s="21"/>
-      <c r="AT93" s="21"/>
-      <c r="AU93" s="21"/>
-      <c r="AV93" s="21"/>
-      <c r="AW93" s="21"/>
-      <c r="AX93" s="21"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+      <c r="V93" s="40"/>
+      <c r="W93" s="40"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="40"/>
+      <c r="Z93" s="40"/>
+      <c r="AA93" s="40"/>
+      <c r="AB93" s="40"/>
+      <c r="AC93" s="40"/>
+      <c r="AD93" s="40"/>
+      <c r="AE93" s="40"/>
+      <c r="AF93" s="40"/>
+      <c r="AG93" s="40"/>
+      <c r="AH93" s="40"/>
+      <c r="AI93" s="40"/>
+      <c r="AJ93" s="40"/>
+      <c r="AK93" s="40"/>
+      <c r="AL93" s="40"/>
+      <c r="AM93" s="40"/>
+      <c r="AN93" s="40"/>
+      <c r="AO93" s="40"/>
+      <c r="AP93" s="40"/>
+      <c r="AQ93" s="40"/>
+      <c r="AR93" s="40"/>
+      <c r="AS93" s="40"/>
+      <c r="AT93" s="40"/>
+      <c r="AU93" s="40"/>
+      <c r="AV93" s="40"/>
+      <c r="AW93" s="40"/>
+      <c r="AX93" s="40"/>
     </row>
     <row r="95" spans="4:50" x14ac:dyDescent="0.15">
       <c r="F95" s="2" t="s">
@@ -6277,71 +6286,71 @@
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D153" s="13"/>
-      <c r="E153" s="21" t="s">
+      <c r="E153" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="21"/>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21"/>
-      <c r="K153" s="21" t="s">
+      <c r="F153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
-      <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
-      <c r="R153" s="21"/>
-      <c r="S153" s="21"/>
-      <c r="T153" s="21"/>
-      <c r="U153" s="21"/>
-      <c r="V153" s="21"/>
-      <c r="W153" s="21"/>
-      <c r="X153" s="21"/>
-      <c r="Y153" s="21"/>
-      <c r="Z153" s="21"/>
-      <c r="AA153" s="21"/>
-      <c r="AB153" s="21"/>
-      <c r="AC153" s="21"/>
-      <c r="AD153" s="21"/>
-      <c r="AE153" s="21"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40"/>
+      <c r="T153" s="40"/>
+      <c r="U153" s="40"/>
+      <c r="V153" s="40"/>
+      <c r="W153" s="40"/>
+      <c r="X153" s="40"/>
+      <c r="Y153" s="40"/>
+      <c r="Z153" s="40"/>
+      <c r="AA153" s="40"/>
+      <c r="AB153" s="40"/>
+      <c r="AC153" s="40"/>
+      <c r="AD153" s="40"/>
+      <c r="AE153" s="40"/>
     </row>
     <row r="154" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D154" s="13"/>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="21"/>
-      <c r="K154" s="21" t="s">
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="21"/>
-      <c r="P154" s="21"/>
-      <c r="Q154" s="21"/>
-      <c r="R154" s="21"/>
-      <c r="S154" s="21"/>
-      <c r="T154" s="21"/>
-      <c r="U154" s="21"/>
-      <c r="V154" s="21"/>
-      <c r="W154" s="21"/>
-      <c r="X154" s="21"/>
-      <c r="Y154" s="21"/>
-      <c r="Z154" s="21"/>
-      <c r="AA154" s="21"/>
-      <c r="AB154" s="21"/>
-      <c r="AC154" s="21"/>
-      <c r="AD154" s="21"/>
-      <c r="AE154" s="21"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="40"/>
+      <c r="N154" s="40"/>
+      <c r="O154" s="40"/>
+      <c r="P154" s="40"/>
+      <c r="Q154" s="40"/>
+      <c r="R154" s="40"/>
+      <c r="S154" s="40"/>
+      <c r="T154" s="40"/>
+      <c r="U154" s="40"/>
+      <c r="V154" s="40"/>
+      <c r="W154" s="40"/>
+      <c r="X154" s="40"/>
+      <c r="Y154" s="40"/>
+      <c r="Z154" s="40"/>
+      <c r="AA154" s="40"/>
+      <c r="AB154" s="40"/>
+      <c r="AC154" s="40"/>
+      <c r="AD154" s="40"/>
+      <c r="AE154" s="40"/>
     </row>
     <row r="166" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D166" s="1" t="s">
@@ -6356,57 +6365,57 @@
     </row>
     <row r="168" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D168" s="1"/>
-      <c r="E168" s="21" t="s">
+      <c r="E168" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="21"/>
-      <c r="I168" s="21"/>
-      <c r="J168" s="21"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="21"/>
-      <c r="M168" s="21" t="s">
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="40"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="40"/>
+      <c r="L168" s="40"/>
+      <c r="M168" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="N168" s="21"/>
-      <c r="O168" s="21"/>
-      <c r="P168" s="21"/>
-      <c r="Q168" s="21"/>
-      <c r="R168" s="21"/>
-      <c r="S168" s="21"/>
-      <c r="T168" s="21"/>
-      <c r="U168" s="21"/>
-      <c r="V168" s="21"/>
-      <c r="W168" s="21"/>
-      <c r="X168" s="21"/>
+      <c r="N168" s="40"/>
+      <c r="O168" s="40"/>
+      <c r="P168" s="40"/>
+      <c r="Q168" s="40"/>
+      <c r="R168" s="40"/>
+      <c r="S168" s="40"/>
+      <c r="T168" s="40"/>
+      <c r="U168" s="40"/>
+      <c r="V168" s="40"/>
+      <c r="W168" s="40"/>
+      <c r="X168" s="40"/>
     </row>
     <row r="169" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D169" s="1"/>
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="21"/>
-      <c r="J169" s="21"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="21"/>
-      <c r="M169" s="21" t="s">
+      <c r="F169" s="40"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="40"/>
+      <c r="K169" s="40"/>
+      <c r="L169" s="40"/>
+      <c r="M169" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N169" s="21"/>
-      <c r="O169" s="21"/>
-      <c r="P169" s="21"/>
-      <c r="Q169" s="21"/>
-      <c r="R169" s="21"/>
-      <c r="S169" s="21"/>
-      <c r="T169" s="21"/>
-      <c r="U169" s="21"/>
-      <c r="V169" s="21"/>
-      <c r="W169" s="21"/>
-      <c r="X169" s="21"/>
+      <c r="N169" s="40"/>
+      <c r="O169" s="40"/>
+      <c r="P169" s="40"/>
+      <c r="Q169" s="40"/>
+      <c r="R169" s="40"/>
+      <c r="S169" s="40"/>
+      <c r="T169" s="40"/>
+      <c r="U169" s="40"/>
+      <c r="V169" s="40"/>
+      <c r="W169" s="40"/>
+      <c r="X169" s="40"/>
     </row>
     <row r="170" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D170" s="1"/>
@@ -6440,17 +6449,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I6:S6"/>
-    <mergeCell ref="I5:S5"/>
-    <mergeCell ref="I4:S4"/>
-    <mergeCell ref="F92:P92"/>
-    <mergeCell ref="F91:P91"/>
-    <mergeCell ref="F90:P90"/>
-    <mergeCell ref="F89:P89"/>
-    <mergeCell ref="F88:P88"/>
+    <mergeCell ref="E168:L168"/>
+    <mergeCell ref="E169:L169"/>
+    <mergeCell ref="M169:X169"/>
+    <mergeCell ref="M168:X168"/>
+    <mergeCell ref="Q93:AX93"/>
     <mergeCell ref="F85:P85"/>
     <mergeCell ref="Q85:AX85"/>
     <mergeCell ref="E154:J154"/>
@@ -6467,11 +6470,17 @@
     <mergeCell ref="Q87:AX87"/>
     <mergeCell ref="Q86:AX86"/>
     <mergeCell ref="F93:P93"/>
-    <mergeCell ref="E168:L168"/>
-    <mergeCell ref="E169:L169"/>
-    <mergeCell ref="M169:X169"/>
-    <mergeCell ref="M168:X168"/>
-    <mergeCell ref="Q93:AX93"/>
+    <mergeCell ref="F92:P92"/>
+    <mergeCell ref="F91:P91"/>
+    <mergeCell ref="F90:P90"/>
+    <mergeCell ref="F89:P89"/>
+    <mergeCell ref="F88:P88"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I6:S6"/>
+    <mergeCell ref="I5:S5"/>
+    <mergeCell ref="I4:S4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6655,7 +6664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041F01A7-9AC7-4247-919D-D159489BC021}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6686,44 +6697,44 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="75" x14ac:dyDescent="0.15">
-      <c r="B5" s="60">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="23" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="60">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="60">
+      <c r="B7" s="25">
         <v>3</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="23" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6733,104 +6744,104 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="26" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6844,4 +6855,31 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA55AB64-3E7C-4594-9C82-10D568C39CBE}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LINEアプリ_環境設定.xlsx
+++ b/LINEアプリ_環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\juju-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10BE16-EC76-420B-90DD-0B2BBDA66824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85238C19-4A46-46E1-A85C-8CFA05DF54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27870" yWindow="1755" windowWidth="20460" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26325" yWindow="3450" windowWidth="20430" windowHeight="11490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="環境" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="409">
   <si>
     <t>■</t>
     <phoneticPr fontId="1"/>
@@ -3193,6 +3193,105 @@
     <rPh sb="1" eb="5">
       <t>トウケイジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．参考</t>
+    <rPh sb="2" eb="4">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://silver0480.blog.fc2.com/blog-entry-474.html</t>
+  </si>
+  <si>
+    <t>docker nginx + Let's encrypt 自動更新(cron使わないで)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let’s Encryptを使用しDocker+nginxのアプリをSSL化した手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/akko_merry/items/d92f7f3fa6db00220b6f</t>
+  </si>
+  <si>
+    <t>docker環境で let's encrypt のssl証明書を取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/mttt/items/aa2ba3a0677a803d0436</t>
+  </si>
+  <si>
+    <t>https://www.opensourcetech.tokyo/entry/20200526/1590482918</t>
+  </si>
+  <si>
+    <t>DockerコンテナのコンテナID(識別子)について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let’s Encryptの使い方〜SSL証明書の取得から更新の自動化まで〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.karakaram.com/letsencrypt-usage/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dockerでlet's encryptを使ってSSLを有効にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://paulownia.hatenablog.com/entry/2020/09/12/150658</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git hub でcloneしようとすると「fatal: destination path '　' already exists and is not an empty directory.」際の対応方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/ochun/items/163abb37339458b3b3db</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dockerイメージとコンテナの削除方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/tifa2chan/items/e9aa408244687a63a0ae</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【Docker】コンテナの入り方【ターミナル】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://yurupro.cloud/2722/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://nasunoblog.blogspot.com/2013/10/sql-server-column-edit-error.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Server カラム定義を変更すると「変更の保存が許可されていません」が表示された場合の対処法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やさしいLet’s EncryptでSSL証明書を発行する方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://oji-cloud.net/2020/09/29/post-5570/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let’s Encrypt証明書の自動更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://tech.mktime.com/entry/190</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3807,6 +3906,33 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3834,9 +3960,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3845,30 +3968,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3930,13 +4029,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6320,9 +6419,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:CT155"/>
+  <dimension ref="B2:CT221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6363,638 +6462,638 @@
       <c r="C9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
     </row>
     <row r="10" spans="2:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="59" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="61" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C15" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="52" t="s">
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="56" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="53" t="s">
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="55"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="63"/>
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C17" s="9">
         <v>8</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="56" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="53" t="s">
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="55"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="63"/>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C18" s="9">
         <v>9</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="56" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="52" t="s">
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C19" s="9">
         <v>10</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="56" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="52" t="s">
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
@@ -7164,186 +7263,186 @@
       <c r="E50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="45"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="54"/>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G51" s="46"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="48"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="57"/>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="48"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="57"/>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G53" s="46"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="48"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="57"/>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="48"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="57"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="48"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="57"/>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G56" s="46"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="48"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="57"/>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="48"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="57"/>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="51"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="60"/>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
@@ -7380,186 +7479,186 @@
       <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="44"/>
-      <c r="X66" s="45"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="54"/>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G67" s="46"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="48"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="57"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G68" s="46"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="48"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="57"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
-      <c r="X69" s="48"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="57"/>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G70" s="46"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
-      <c r="X70" s="48"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="57"/>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
-      <c r="X71" s="48"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="57"/>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G72" s="46"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
-      <c r="X72" s="48"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="56"/>
+      <c r="X72" s="57"/>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="48"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="57"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G74" s="49"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
-      <c r="R74" s="50"/>
-      <c r="S74" s="50"/>
-      <c r="T74" s="50"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="50"/>
-      <c r="W74" s="50"/>
-      <c r="X74" s="51"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="59"/>
+      <c r="P74" s="59"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="60"/>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.15">
       <c r="C76" s="2" t="s">
@@ -7751,13 +7850,149 @@
         <v>379</v>
       </c>
     </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B185" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C187" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D188" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C190" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D191" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C193" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D194" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C196" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D197" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C199" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D200" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C202" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D203" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C205" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D206" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C208" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D209" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C211" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D212" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C214" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D215" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C217" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D218" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C220" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D221" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="G66:X74"/>
+    <mergeCell ref="G50:X58"/>
+    <mergeCell ref="AG15:AY15"/>
+    <mergeCell ref="AG16:AY16"/>
+    <mergeCell ref="AG17:AY17"/>
+    <mergeCell ref="AG18:AY18"/>
+    <mergeCell ref="AG19:AY19"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG9:AY9"/>
+    <mergeCell ref="AG10:AY10"/>
+    <mergeCell ref="AG11:AY11"/>
+    <mergeCell ref="AG12:AY12"/>
+    <mergeCell ref="AG13:AY13"/>
     <mergeCell ref="AG14:AY14"/>
     <mergeCell ref="E13:L13"/>
     <mergeCell ref="E15:L15"/>
@@ -7774,22 +8009,11 @@
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="AG9:AY9"/>
-    <mergeCell ref="AG10:AY10"/>
-    <mergeCell ref="AG11:AY11"/>
-    <mergeCell ref="AG12:AY12"/>
-    <mergeCell ref="AG13:AY13"/>
-    <mergeCell ref="G66:X74"/>
-    <mergeCell ref="G50:X58"/>
-    <mergeCell ref="AG15:AY15"/>
-    <mergeCell ref="AG16:AY16"/>
-    <mergeCell ref="AG17:AY17"/>
-    <mergeCell ref="AG18:AY18"/>
-    <mergeCell ref="AG19:AY19"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7797,9 +8021,10 @@
     <hyperlink ref="H36" r:id="rId2" xr:uid="{E6117A56-A227-4C23-B7DB-FB43E203CE56}"/>
     <hyperlink ref="H33" r:id="rId3" xr:uid="{ACC00D68-0B3F-4B15-8C4D-DA6AD13998EB}"/>
     <hyperlink ref="H30" r:id="rId4" xr:uid="{7D07EC34-99F9-41F2-A115-A573752DED1C}"/>
+    <hyperlink ref="D200" r:id="rId5" xr:uid="{092356A4-D49E-4C31-A90C-D6AB09C9D23F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -8348,200 +8573,200 @@
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E63" s="69"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
       <c r="M63" s="70"/>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E64" s="69"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
       <c r="M64" s="70"/>
     </row>
     <row r="65" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E65" s="69"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
       <c r="M65" s="70"/>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E66" s="69"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
       <c r="M66" s="70"/>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E67" s="69"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
       <c r="M67" s="70"/>
     </row>
     <row r="68" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E68" s="69"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
       <c r="M68" s="70"/>
     </row>
     <row r="69" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E69" s="69"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
       <c r="M69" s="70"/>
     </row>
     <row r="70" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E70" s="69"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
       <c r="M70" s="70"/>
     </row>
     <row r="71" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E71" s="69"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
       <c r="M71" s="70"/>
     </row>
     <row r="72" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E72" s="69"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
       <c r="M72" s="70"/>
     </row>
     <row r="73" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E73" s="69"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
       <c r="M73" s="70"/>
     </row>
     <row r="74" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E74" s="69"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
       <c r="M74" s="70"/>
     </row>
     <row r="75" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E75" s="69"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
       <c r="M75" s="70"/>
     </row>
     <row r="76" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E76" s="69"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
       <c r="M76" s="70"/>
     </row>
     <row r="77" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E77" s="69"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
       <c r="M77" s="70"/>
     </row>
     <row r="78" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E78" s="69"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
       <c r="M78" s="70"/>
     </row>
     <row r="79" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E79" s="69"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
       <c r="M79" s="70"/>
     </row>
     <row r="80" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E80" s="69"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
       <c r="M80" s="70"/>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.15">
@@ -9547,70 +9772,70 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="56" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -9694,463 +9919,463 @@
       </c>
     </row>
     <row r="85" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F85" s="86" t="s">
+      <c r="F85" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="86"/>
-      <c r="K85" s="86"/>
-      <c r="L85" s="86"/>
-      <c r="M85" s="86"/>
-      <c r="N85" s="86"/>
-      <c r="O85" s="86"/>
-      <c r="P85" s="86"/>
-      <c r="Q85" s="86" t="s">
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="R85" s="86"/>
-      <c r="S85" s="86"/>
-      <c r="T85" s="86"/>
-      <c r="U85" s="86"/>
-      <c r="V85" s="86"/>
-      <c r="W85" s="86"/>
-      <c r="X85" s="86"/>
-      <c r="Y85" s="86"/>
-      <c r="Z85" s="86"/>
-      <c r="AA85" s="86"/>
-      <c r="AB85" s="86"/>
-      <c r="AC85" s="86"/>
-      <c r="AD85" s="86"/>
-      <c r="AE85" s="86"/>
-      <c r="AF85" s="86"/>
-      <c r="AG85" s="86"/>
-      <c r="AH85" s="86"/>
-      <c r="AI85" s="86"/>
-      <c r="AJ85" s="86"/>
-      <c r="AK85" s="86"/>
-      <c r="AL85" s="86"/>
-      <c r="AM85" s="86"/>
-      <c r="AN85" s="86"/>
-      <c r="AO85" s="86"/>
-      <c r="AP85" s="86"/>
-      <c r="AQ85" s="86"/>
-      <c r="AR85" s="86"/>
-      <c r="AS85" s="86"/>
-      <c r="AT85" s="86"/>
-      <c r="AU85" s="86"/>
-      <c r="AV85" s="86"/>
-      <c r="AW85" s="86"/>
-      <c r="AX85" s="86"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="84"/>
+      <c r="T85" s="84"/>
+      <c r="U85" s="84"/>
+      <c r="V85" s="84"/>
+      <c r="W85" s="84"/>
+      <c r="X85" s="84"/>
+      <c r="Y85" s="84"/>
+      <c r="Z85" s="84"/>
+      <c r="AA85" s="84"/>
+      <c r="AB85" s="84"/>
+      <c r="AC85" s="84"/>
+      <c r="AD85" s="84"/>
+      <c r="AE85" s="84"/>
+      <c r="AF85" s="84"/>
+      <c r="AG85" s="84"/>
+      <c r="AH85" s="84"/>
+      <c r="AI85" s="84"/>
+      <c r="AJ85" s="84"/>
+      <c r="AK85" s="84"/>
+      <c r="AL85" s="84"/>
+      <c r="AM85" s="84"/>
+      <c r="AN85" s="84"/>
+      <c r="AO85" s="84"/>
+      <c r="AP85" s="84"/>
+      <c r="AQ85" s="84"/>
+      <c r="AR85" s="84"/>
+      <c r="AS85" s="84"/>
+      <c r="AT85" s="84"/>
+      <c r="AU85" s="84"/>
+      <c r="AV85" s="84"/>
+      <c r="AW85" s="84"/>
+      <c r="AX85" s="84"/>
     </row>
     <row r="86" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F86" s="56" t="s">
+      <c r="F86" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56" t="s">
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="R86" s="56"/>
-      <c r="S86" s="56"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="56"/>
-      <c r="AQ86" s="56"/>
-      <c r="AR86" s="56"/>
-      <c r="AS86" s="56"/>
-      <c r="AT86" s="56"/>
-      <c r="AU86" s="56"/>
-      <c r="AV86" s="56"/>
-      <c r="AW86" s="56"/>
-      <c r="AX86" s="56"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="43"/>
+      <c r="AA86" s="43"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="43"/>
+      <c r="AD86" s="43"/>
+      <c r="AE86" s="43"/>
+      <c r="AF86" s="43"/>
+      <c r="AG86" s="43"/>
+      <c r="AH86" s="43"/>
+      <c r="AI86" s="43"/>
+      <c r="AJ86" s="43"/>
+      <c r="AK86" s="43"/>
+      <c r="AL86" s="43"/>
+      <c r="AM86" s="43"/>
+      <c r="AN86" s="43"/>
+      <c r="AO86" s="43"/>
+      <c r="AP86" s="43"/>
+      <c r="AQ86" s="43"/>
+      <c r="AR86" s="43"/>
+      <c r="AS86" s="43"/>
+      <c r="AT86" s="43"/>
+      <c r="AU86" s="43"/>
+      <c r="AV86" s="43"/>
+      <c r="AW86" s="43"/>
+      <c r="AX86" s="43"/>
     </row>
     <row r="87" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F87" s="56" t="s">
+      <c r="F87" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56" t="s">
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-      <c r="AP87" s="56"/>
-      <c r="AQ87" s="56"/>
-      <c r="AR87" s="56"/>
-      <c r="AS87" s="56"/>
-      <c r="AT87" s="56"/>
-      <c r="AU87" s="56"/>
-      <c r="AV87" s="56"/>
-      <c r="AW87" s="56"/>
-      <c r="AX87" s="56"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="43"/>
+      <c r="AC87" s="43"/>
+      <c r="AD87" s="43"/>
+      <c r="AE87" s="43"/>
+      <c r="AF87" s="43"/>
+      <c r="AG87" s="43"/>
+      <c r="AH87" s="43"/>
+      <c r="AI87" s="43"/>
+      <c r="AJ87" s="43"/>
+      <c r="AK87" s="43"/>
+      <c r="AL87" s="43"/>
+      <c r="AM87" s="43"/>
+      <c r="AN87" s="43"/>
+      <c r="AO87" s="43"/>
+      <c r="AP87" s="43"/>
+      <c r="AQ87" s="43"/>
+      <c r="AR87" s="43"/>
+      <c r="AS87" s="43"/>
+      <c r="AT87" s="43"/>
+      <c r="AU87" s="43"/>
+      <c r="AV87" s="43"/>
+      <c r="AW87" s="43"/>
+      <c r="AX87" s="43"/>
     </row>
     <row r="88" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56" t="s">
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="R88" s="56"/>
-      <c r="S88" s="56"/>
-      <c r="T88" s="56"/>
-      <c r="U88" s="56"/>
-      <c r="V88" s="56"/>
-      <c r="W88" s="56"/>
-      <c r="X88" s="56"/>
-      <c r="Y88" s="56"/>
-      <c r="Z88" s="56"/>
-      <c r="AA88" s="56"/>
-      <c r="AB88" s="56"/>
-      <c r="AC88" s="56"/>
-      <c r="AD88" s="56"/>
-      <c r="AE88" s="56"/>
-      <c r="AF88" s="56"/>
-      <c r="AG88" s="56"/>
-      <c r="AH88" s="56"/>
-      <c r="AI88" s="56"/>
-      <c r="AJ88" s="56"/>
-      <c r="AK88" s="56"/>
-      <c r="AL88" s="56"/>
-      <c r="AM88" s="56"/>
-      <c r="AN88" s="56"/>
-      <c r="AO88" s="56"/>
-      <c r="AP88" s="56"/>
-      <c r="AQ88" s="56"/>
-      <c r="AR88" s="56"/>
-      <c r="AS88" s="56"/>
-      <c r="AT88" s="56"/>
-      <c r="AU88" s="56"/>
-      <c r="AV88" s="56"/>
-      <c r="AW88" s="56"/>
-      <c r="AX88" s="56"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="43"/>
+      <c r="AB88" s="43"/>
+      <c r="AC88" s="43"/>
+      <c r="AD88" s="43"/>
+      <c r="AE88" s="43"/>
+      <c r="AF88" s="43"/>
+      <c r="AG88" s="43"/>
+      <c r="AH88" s="43"/>
+      <c r="AI88" s="43"/>
+      <c r="AJ88" s="43"/>
+      <c r="AK88" s="43"/>
+      <c r="AL88" s="43"/>
+      <c r="AM88" s="43"/>
+      <c r="AN88" s="43"/>
+      <c r="AO88" s="43"/>
+      <c r="AP88" s="43"/>
+      <c r="AQ88" s="43"/>
+      <c r="AR88" s="43"/>
+      <c r="AS88" s="43"/>
+      <c r="AT88" s="43"/>
+      <c r="AU88" s="43"/>
+      <c r="AV88" s="43"/>
+      <c r="AW88" s="43"/>
+      <c r="AX88" s="43"/>
     </row>
     <row r="89" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F89" s="56" t="s">
+      <c r="F89" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56" t="s">
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="56"/>
-      <c r="Z89" s="56"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="56"/>
-      <c r="AE89" s="56"/>
-      <c r="AF89" s="56"/>
-      <c r="AG89" s="56"/>
-      <c r="AH89" s="56"/>
-      <c r="AI89" s="56"/>
-      <c r="AJ89" s="56"/>
-      <c r="AK89" s="56"/>
-      <c r="AL89" s="56"/>
-      <c r="AM89" s="56"/>
-      <c r="AN89" s="56"/>
-      <c r="AO89" s="56"/>
-      <c r="AP89" s="56"/>
-      <c r="AQ89" s="56"/>
-      <c r="AR89" s="56"/>
-      <c r="AS89" s="56"/>
-      <c r="AT89" s="56"/>
-      <c r="AU89" s="56"/>
-      <c r="AV89" s="56"/>
-      <c r="AW89" s="56"/>
-      <c r="AX89" s="56"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="43"/>
+      <c r="AA89" s="43"/>
+      <c r="AB89" s="43"/>
+      <c r="AC89" s="43"/>
+      <c r="AD89" s="43"/>
+      <c r="AE89" s="43"/>
+      <c r="AF89" s="43"/>
+      <c r="AG89" s="43"/>
+      <c r="AH89" s="43"/>
+      <c r="AI89" s="43"/>
+      <c r="AJ89" s="43"/>
+      <c r="AK89" s="43"/>
+      <c r="AL89" s="43"/>
+      <c r="AM89" s="43"/>
+      <c r="AN89" s="43"/>
+      <c r="AO89" s="43"/>
+      <c r="AP89" s="43"/>
+      <c r="AQ89" s="43"/>
+      <c r="AR89" s="43"/>
+      <c r="AS89" s="43"/>
+      <c r="AT89" s="43"/>
+      <c r="AU89" s="43"/>
+      <c r="AV89" s="43"/>
+      <c r="AW89" s="43"/>
+      <c r="AX89" s="43"/>
     </row>
     <row r="90" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F90" s="56" t="s">
+      <c r="F90" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="61" t="s">
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="R90" s="56"/>
-      <c r="S90" s="56"/>
-      <c r="T90" s="56"/>
-      <c r="U90" s="56"/>
-      <c r="V90" s="56"/>
-      <c r="W90" s="56"/>
-      <c r="X90" s="56"/>
-      <c r="Y90" s="56"/>
-      <c r="Z90" s="56"/>
-      <c r="AA90" s="56"/>
-      <c r="AB90" s="56"/>
-      <c r="AC90" s="56"/>
-      <c r="AD90" s="56"/>
-      <c r="AE90" s="56"/>
-      <c r="AF90" s="56"/>
-      <c r="AG90" s="56"/>
-      <c r="AH90" s="56"/>
-      <c r="AI90" s="56"/>
-      <c r="AJ90" s="56"/>
-      <c r="AK90" s="56"/>
-      <c r="AL90" s="56"/>
-      <c r="AM90" s="56"/>
-      <c r="AN90" s="56"/>
-      <c r="AO90" s="56"/>
-      <c r="AP90" s="56"/>
-      <c r="AQ90" s="56"/>
-      <c r="AR90" s="56"/>
-      <c r="AS90" s="56"/>
-      <c r="AT90" s="56"/>
-      <c r="AU90" s="56"/>
-      <c r="AV90" s="56"/>
-      <c r="AW90" s="56"/>
-      <c r="AX90" s="56"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="43"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="43"/>
+      <c r="AA90" s="43"/>
+      <c r="AB90" s="43"/>
+      <c r="AC90" s="43"/>
+      <c r="AD90" s="43"/>
+      <c r="AE90" s="43"/>
+      <c r="AF90" s="43"/>
+      <c r="AG90" s="43"/>
+      <c r="AH90" s="43"/>
+      <c r="AI90" s="43"/>
+      <c r="AJ90" s="43"/>
+      <c r="AK90" s="43"/>
+      <c r="AL90" s="43"/>
+      <c r="AM90" s="43"/>
+      <c r="AN90" s="43"/>
+      <c r="AO90" s="43"/>
+      <c r="AP90" s="43"/>
+      <c r="AQ90" s="43"/>
+      <c r="AR90" s="43"/>
+      <c r="AS90" s="43"/>
+      <c r="AT90" s="43"/>
+      <c r="AU90" s="43"/>
+      <c r="AV90" s="43"/>
+      <c r="AW90" s="43"/>
+      <c r="AX90" s="43"/>
     </row>
     <row r="91" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F91" s="56" t="s">
+      <c r="F91" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="56"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="61" t="s">
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="R91" s="56"/>
-      <c r="S91" s="56"/>
-      <c r="T91" s="56"/>
-      <c r="U91" s="56"/>
-      <c r="V91" s="56"/>
-      <c r="W91" s="56"/>
-      <c r="X91" s="56"/>
-      <c r="Y91" s="56"/>
-      <c r="Z91" s="56"/>
-      <c r="AA91" s="56"/>
-      <c r="AB91" s="56"/>
-      <c r="AC91" s="56"/>
-      <c r="AD91" s="56"/>
-      <c r="AE91" s="56"/>
-      <c r="AF91" s="56"/>
-      <c r="AG91" s="56"/>
-      <c r="AH91" s="56"/>
-      <c r="AI91" s="56"/>
-      <c r="AJ91" s="56"/>
-      <c r="AK91" s="56"/>
-      <c r="AL91" s="56"/>
-      <c r="AM91" s="56"/>
-      <c r="AN91" s="56"/>
-      <c r="AO91" s="56"/>
-      <c r="AP91" s="56"/>
-      <c r="AQ91" s="56"/>
-      <c r="AR91" s="56"/>
-      <c r="AS91" s="56"/>
-      <c r="AT91" s="56"/>
-      <c r="AU91" s="56"/>
-      <c r="AV91" s="56"/>
-      <c r="AW91" s="56"/>
-      <c r="AX91" s="56"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="43"/>
+      <c r="AB91" s="43"/>
+      <c r="AC91" s="43"/>
+      <c r="AD91" s="43"/>
+      <c r="AE91" s="43"/>
+      <c r="AF91" s="43"/>
+      <c r="AG91" s="43"/>
+      <c r="AH91" s="43"/>
+      <c r="AI91" s="43"/>
+      <c r="AJ91" s="43"/>
+      <c r="AK91" s="43"/>
+      <c r="AL91" s="43"/>
+      <c r="AM91" s="43"/>
+      <c r="AN91" s="43"/>
+      <c r="AO91" s="43"/>
+      <c r="AP91" s="43"/>
+      <c r="AQ91" s="43"/>
+      <c r="AR91" s="43"/>
+      <c r="AS91" s="43"/>
+      <c r="AT91" s="43"/>
+      <c r="AU91" s="43"/>
+      <c r="AV91" s="43"/>
+      <c r="AW91" s="43"/>
+      <c r="AX91" s="43"/>
     </row>
     <row r="92" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="61" t="s">
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="R92" s="56"/>
-      <c r="S92" s="56"/>
-      <c r="T92" s="56"/>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="56"/>
-      <c r="X92" s="56"/>
-      <c r="Y92" s="56"/>
-      <c r="Z92" s="56"/>
-      <c r="AA92" s="56"/>
-      <c r="AB92" s="56"/>
-      <c r="AC92" s="56"/>
-      <c r="AD92" s="56"/>
-      <c r="AE92" s="56"/>
-      <c r="AF92" s="56"/>
-      <c r="AG92" s="56"/>
-      <c r="AH92" s="56"/>
-      <c r="AI92" s="56"/>
-      <c r="AJ92" s="56"/>
-      <c r="AK92" s="56"/>
-      <c r="AL92" s="56"/>
-      <c r="AM92" s="56"/>
-      <c r="AN92" s="56"/>
-      <c r="AO92" s="56"/>
-      <c r="AP92" s="56"/>
-      <c r="AQ92" s="56"/>
-      <c r="AR92" s="56"/>
-      <c r="AS92" s="56"/>
-      <c r="AT92" s="56"/>
-      <c r="AU92" s="56"/>
-      <c r="AV92" s="56"/>
-      <c r="AW92" s="56"/>
-      <c r="AX92" s="56"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="43"/>
+      <c r="AB92" s="43"/>
+      <c r="AC92" s="43"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="43"/>
+      <c r="AF92" s="43"/>
+      <c r="AG92" s="43"/>
+      <c r="AH92" s="43"/>
+      <c r="AI92" s="43"/>
+      <c r="AJ92" s="43"/>
+      <c r="AK92" s="43"/>
+      <c r="AL92" s="43"/>
+      <c r="AM92" s="43"/>
+      <c r="AN92" s="43"/>
+      <c r="AO92" s="43"/>
+      <c r="AP92" s="43"/>
+      <c r="AQ92" s="43"/>
+      <c r="AR92" s="43"/>
+      <c r="AS92" s="43"/>
+      <c r="AT92" s="43"/>
+      <c r="AU92" s="43"/>
+      <c r="AV92" s="43"/>
+      <c r="AW92" s="43"/>
+      <c r="AX92" s="43"/>
     </row>
     <row r="93" spans="4:50" x14ac:dyDescent="0.15">
-      <c r="F93" s="56" t="s">
+      <c r="F93" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="56"/>
-      <c r="P93" s="56"/>
-      <c r="Q93" s="56" t="s">
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R93" s="56"/>
-      <c r="S93" s="56"/>
-      <c r="T93" s="56"/>
-      <c r="U93" s="56"/>
-      <c r="V93" s="56"/>
-      <c r="W93" s="56"/>
-      <c r="X93" s="56"/>
-      <c r="Y93" s="56"/>
-      <c r="Z93" s="56"/>
-      <c r="AA93" s="56"/>
-      <c r="AB93" s="56"/>
-      <c r="AC93" s="56"/>
-      <c r="AD93" s="56"/>
-      <c r="AE93" s="56"/>
-      <c r="AF93" s="56"/>
-      <c r="AG93" s="56"/>
-      <c r="AH93" s="56"/>
-      <c r="AI93" s="56"/>
-      <c r="AJ93" s="56"/>
-      <c r="AK93" s="56"/>
-      <c r="AL93" s="56"/>
-      <c r="AM93" s="56"/>
-      <c r="AN93" s="56"/>
-      <c r="AO93" s="56"/>
-      <c r="AP93" s="56"/>
-      <c r="AQ93" s="56"/>
-      <c r="AR93" s="56"/>
-      <c r="AS93" s="56"/>
-      <c r="AT93" s="56"/>
-      <c r="AU93" s="56"/>
-      <c r="AV93" s="56"/>
-      <c r="AW93" s="56"/>
-      <c r="AX93" s="56"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="43"/>
+      <c r="AH93" s="43"/>
+      <c r="AI93" s="43"/>
+      <c r="AJ93" s="43"/>
+      <c r="AK93" s="43"/>
+      <c r="AL93" s="43"/>
+      <c r="AM93" s="43"/>
+      <c r="AN93" s="43"/>
+      <c r="AO93" s="43"/>
+      <c r="AP93" s="43"/>
+      <c r="AQ93" s="43"/>
+      <c r="AR93" s="43"/>
+      <c r="AS93" s="43"/>
+      <c r="AT93" s="43"/>
+      <c r="AU93" s="43"/>
+      <c r="AV93" s="43"/>
+      <c r="AW93" s="43"/>
+      <c r="AX93" s="43"/>
     </row>
     <row r="95" spans="4:50" x14ac:dyDescent="0.15">
       <c r="F95" s="2" t="s">
@@ -10307,71 +10532,71 @@
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D153" s="13"/>
-      <c r="E153" s="56" t="s">
+      <c r="E153" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="56"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="56" t="s">
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="L153" s="56"/>
-      <c r="M153" s="56"/>
-      <c r="N153" s="56"/>
-      <c r="O153" s="56"/>
-      <c r="P153" s="56"/>
-      <c r="Q153" s="56"/>
-      <c r="R153" s="56"/>
-      <c r="S153" s="56"/>
-      <c r="T153" s="56"/>
-      <c r="U153" s="56"/>
-      <c r="V153" s="56"/>
-      <c r="W153" s="56"/>
-      <c r="X153" s="56"/>
-      <c r="Y153" s="56"/>
-      <c r="Z153" s="56"/>
-      <c r="AA153" s="56"/>
-      <c r="AB153" s="56"/>
-      <c r="AC153" s="56"/>
-      <c r="AD153" s="56"/>
-      <c r="AE153" s="56"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="43"/>
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="43"/>
+      <c r="V153" s="43"/>
+      <c r="W153" s="43"/>
+      <c r="X153" s="43"/>
+      <c r="Y153" s="43"/>
+      <c r="Z153" s="43"/>
+      <c r="AA153" s="43"/>
+      <c r="AB153" s="43"/>
+      <c r="AC153" s="43"/>
+      <c r="AD153" s="43"/>
+      <c r="AE153" s="43"/>
     </row>
     <row r="154" spans="2:31" x14ac:dyDescent="0.15">
       <c r="D154" s="13"/>
-      <c r="E154" s="56" t="s">
+      <c r="E154" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F154" s="56"/>
-      <c r="G154" s="56"/>
-      <c r="H154" s="56"/>
-      <c r="I154" s="56"/>
-      <c r="J154" s="56"/>
-      <c r="K154" s="56" t="s">
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="43"/>
+      <c r="K154" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="L154" s="56"/>
-      <c r="M154" s="56"/>
-      <c r="N154" s="56"/>
-      <c r="O154" s="56"/>
-      <c r="P154" s="56"/>
-      <c r="Q154" s="56"/>
-      <c r="R154" s="56"/>
-      <c r="S154" s="56"/>
-      <c r="T154" s="56"/>
-      <c r="U154" s="56"/>
-      <c r="V154" s="56"/>
-      <c r="W154" s="56"/>
-      <c r="X154" s="56"/>
-      <c r="Y154" s="56"/>
-      <c r="Z154" s="56"/>
-      <c r="AA154" s="56"/>
-      <c r="AB154" s="56"/>
-      <c r="AC154" s="56"/>
-      <c r="AD154" s="56"/>
-      <c r="AE154" s="56"/>
+      <c r="L154" s="43"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="43"/>
+      <c r="O154" s="43"/>
+      <c r="P154" s="43"/>
+      <c r="Q154" s="43"/>
+      <c r="R154" s="43"/>
+      <c r="S154" s="43"/>
+      <c r="T154" s="43"/>
+      <c r="U154" s="43"/>
+      <c r="V154" s="43"/>
+      <c r="W154" s="43"/>
+      <c r="X154" s="43"/>
+      <c r="Y154" s="43"/>
+      <c r="Z154" s="43"/>
+      <c r="AA154" s="43"/>
+      <c r="AB154" s="43"/>
+      <c r="AC154" s="43"/>
+      <c r="AD154" s="43"/>
+      <c r="AE154" s="43"/>
     </row>
     <row r="166" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D166" s="1" t="s">
@@ -10386,57 +10611,57 @@
     </row>
     <row r="168" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D168" s="1"/>
-      <c r="E168" s="56" t="s">
+      <c r="E168" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="F168" s="56"/>
-      <c r="G168" s="56"/>
-      <c r="H168" s="56"/>
-      <c r="I168" s="56"/>
-      <c r="J168" s="56"/>
-      <c r="K168" s="56"/>
-      <c r="L168" s="56"/>
-      <c r="M168" s="56" t="s">
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="43"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="43"/>
+      <c r="M168" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="N168" s="56"/>
-      <c r="O168" s="56"/>
-      <c r="P168" s="56"/>
-      <c r="Q168" s="56"/>
-      <c r="R168" s="56"/>
-      <c r="S168" s="56"/>
-      <c r="T168" s="56"/>
-      <c r="U168" s="56"/>
-      <c r="V168" s="56"/>
-      <c r="W168" s="56"/>
-      <c r="X168" s="56"/>
+      <c r="N168" s="43"/>
+      <c r="O168" s="43"/>
+      <c r="P168" s="43"/>
+      <c r="Q168" s="43"/>
+      <c r="R168" s="43"/>
+      <c r="S168" s="43"/>
+      <c r="T168" s="43"/>
+      <c r="U168" s="43"/>
+      <c r="V168" s="43"/>
+      <c r="W168" s="43"/>
+      <c r="X168" s="43"/>
     </row>
     <row r="169" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D169" s="1"/>
-      <c r="E169" s="56" t="s">
+      <c r="E169" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="F169" s="56"/>
-      <c r="G169" s="56"/>
-      <c r="H169" s="56"/>
-      <c r="I169" s="56"/>
-      <c r="J169" s="56"/>
-      <c r="K169" s="56"/>
-      <c r="L169" s="56"/>
-      <c r="M169" s="56" t="s">
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="43"/>
+      <c r="J169" s="43"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="43"/>
+      <c r="M169" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="N169" s="56"/>
-      <c r="O169" s="56"/>
-      <c r="P169" s="56"/>
-      <c r="Q169" s="56"/>
-      <c r="R169" s="56"/>
-      <c r="S169" s="56"/>
-      <c r="T169" s="56"/>
-      <c r="U169" s="56"/>
-      <c r="V169" s="56"/>
-      <c r="W169" s="56"/>
-      <c r="X169" s="56"/>
+      <c r="N169" s="43"/>
+      <c r="O169" s="43"/>
+      <c r="P169" s="43"/>
+      <c r="Q169" s="43"/>
+      <c r="R169" s="43"/>
+      <c r="S169" s="43"/>
+      <c r="T169" s="43"/>
+      <c r="U169" s="43"/>
+      <c r="V169" s="43"/>
+      <c r="W169" s="43"/>
+      <c r="X169" s="43"/>
     </row>
     <row r="170" spans="4:24" x14ac:dyDescent="0.15">
       <c r="D170" s="1"/>
@@ -10470,11 +10695,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E168:L168"/>
-    <mergeCell ref="E169:L169"/>
-    <mergeCell ref="M169:X169"/>
-    <mergeCell ref="M168:X168"/>
-    <mergeCell ref="Q93:AX93"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I6:S6"/>
+    <mergeCell ref="I5:S5"/>
+    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="F92:P92"/>
+    <mergeCell ref="F91:P91"/>
+    <mergeCell ref="F90:P90"/>
+    <mergeCell ref="F89:P89"/>
+    <mergeCell ref="F88:P88"/>
     <mergeCell ref="F85:P85"/>
     <mergeCell ref="Q85:AX85"/>
     <mergeCell ref="E154:J154"/>
@@ -10491,17 +10722,11 @@
     <mergeCell ref="Q87:AX87"/>
     <mergeCell ref="Q86:AX86"/>
     <mergeCell ref="F93:P93"/>
-    <mergeCell ref="F92:P92"/>
-    <mergeCell ref="F91:P91"/>
-    <mergeCell ref="F90:P90"/>
-    <mergeCell ref="F89:P89"/>
-    <mergeCell ref="F88:P88"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I6:S6"/>
-    <mergeCell ref="I5:S5"/>
-    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="E168:L168"/>
+    <mergeCell ref="E169:L169"/>
+    <mergeCell ref="M169:X169"/>
+    <mergeCell ref="M168:X168"/>
+    <mergeCell ref="Q93:AX93"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10990,108 +11215,108 @@
       <c r="B2" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="58" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="56" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="97"/>
       <c r="J4" s="97"/>
       <c r="K4" s="97"/>
@@ -11104,37 +11329,37 @@
       <c r="R4" s="97"/>
       <c r="S4" s="97"/>
       <c r="T4" s="97"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="98" t="s">
         <v>235</v>
       </c>
@@ -11174,48 +11399,48 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="61" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
